--- a/news_data/2016_10.xlsx
+++ b/news_data/2016_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,57 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 "오라관광단지 어떤 특혜 없었다"</t>
+  </si>
+  <si>
+    <t>제주도, 민관합동 中 관광객 안전문화 캠페인 연중 전개</t>
+  </si>
+  <si>
+    <t>논란 빚는 오라관광단지 도의원 문제 제기에 제주도 “책임져라”</t>
+  </si>
+  <si>
+    <t>"제주도·도민 주체 지역밀착형 문화예술관광 기반 구축을"</t>
+  </si>
+  <si>
+    <t>제주도 "강경식 의원, 오라관광단지 근거 없는 의혹 제기 유감"</t>
+  </si>
+  <si>
+    <t>강경식 도의원, 오라관광단지 사업 추진 제주도 맹비난</t>
+  </si>
+  <si>
+    <t>관광객 '제주도 高물가' 인식...정말 비싼 것, 맞나?</t>
+  </si>
+  <si>
+    <t>제주도 “오라관광단지 엄격한 법 절차에 의해 처리”</t>
+  </si>
+  <si>
+    <t>제주도, “현재 오라관광단지 사업계획에 카지노 없다”</t>
+  </si>
+  <si>
+    <t>제주도 "오라관광단지 개발 계속추진"…단체반발에도 '강행'</t>
+  </si>
+  <si>
+    <t>가을 여행 명소 제주도, 공항근처에서 즐길 수 있는 관광지 및 맛집 추천</t>
+  </si>
+  <si>
+    <t>제주도관광협회, ‘가을 여행주간 맞이’ 환대 캠페인</t>
+  </si>
+  <si>
+    <t>中 카지노 천국 '오라관광지구'…제주도 왜? "노골적인 편들기"</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울제주도민의 날 참가</t>
+  </si>
+  <si>
+    <t>제주도, 일본인관광객 유치에 활력</t>
+  </si>
+  <si>
+    <t>제주도관광협회-시베리아바이칼관광협회 교류 본격</t>
+  </si>
+  <si>
+    <t>의혹이 사실로! 제주도, 오라관광단지 대놓고 밀어주기</t>
+  </si>
+  <si>
     <t>檢, '식당 여주인 집단 폭행' 중국인 제주도 관광객 7명 기소</t>
   </si>
   <si>
@@ -31,12 +82,12 @@
     <t>제주도서 식당 여주인 집단 폭행한 중국인 관광객 7명 기소</t>
   </si>
   <si>
+    <t>제주도 성산 관광 후 맛보는 이색 해물 맛집</t>
+  </si>
+  <si>
     <t>제주도-러시아 시베리아 관광협회간 우호교류 협약 체결</t>
   </si>
   <si>
-    <t>제주도 성산 관광 후 맛보는 이색 해물 맛집</t>
-  </si>
-  <si>
     <t>제주도, CCTV 확충 등 도민·관광객 안전확보 인프라 ↑↑</t>
   </si>
   <si>
@@ -52,34 +103,76 @@
     <t>각종 제주 관광지 인접… 제주도 오피스텔 '킹덤레지던스 협재' 공급</t>
   </si>
   <si>
-    <t>檢, '식당 여주인 집단 폭행' 중국인 제주도 관광객 7명 기소 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #전기요금 인상 #尹 지지율 24% #10월 금통위 결정은 #바닥 안보이는 증시 #환율 1500원 뚫리나 #신당역 살인범 전주환 #실외 마스크 전면 해제 #돈스파이크 마약 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회일반 urlhttps://www.sedaily.com/NewsView/1L2KBXUU4K 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회일반 檢, '식당 여주인 집단 폭행' 중국인 제주도 관광객 7명 기소 입력2016-10-04 16:13:11 수정 2016.10.04 16:13:11 김영준 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 viewer 지난달 9일 음식값 지불을 요구하는 식당 주인을 집단 폭행한 중국인 7명이 재판에 넘겨졌다. /연합뉴스지난달 9일 음식값 지불을 요구하는 식당 주인을 집단 폭행한 중국인 7명이 재판에 회부됐다. 4일 제주지검은 제주도 연동의 한 중국 요리 식당에서 업주 안모(53, 여) 씨를 때려 뇌출혈 등의 상해를 입힌 중국인 관광객 천모(37) 씨 등 5명을 특수상해 및 공동폭행 혐의로 구속 기소하고 2명을 같은 혐의로 불구속 기소했다고 밝혔다.이들은 폭행을 말리는 손님 정모(28) 씨 등 3명을 폭행해 안와골절을 입힌 혐의도 받고 있다.이들은 음식점에서 음식을 주문하고 외부에서 사온 술을 마시려다 제지당하자 음식점을 나와버렸고, 여주인이 쫓아와 음식값을 계산하라고 하자 폭행한 것으로 조사됐다. 애초 중국인 8명이 폭행 혐의로 입건됐으나 그 중 1명은 범행 현장에 없었던 것으로 드러나 기소 대상에서 제외됐다고 검찰은 밝혔다.한편 폭행 피해를 입은 안 씨는 한국 국적을 취득한 중국동포로 알려졌다. /김영준인턴기자 gogundam@sedaily.com &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 오늘의 핫토픽 # 전기요금 인상 # 尹 지지율 24% # 10월 금통위 결정은 # 바닥 안보이는 증시 # 환율 1500원 뚫리나 오늘의 이슈 #마약민국 정신 올리패스 대표 "비마약성 진통제 성공땐 내년 적자구조 탈출 가능" #尹, 비속어 논란 與는 문재인·이재명 집중공략…野선 김건희·尹순방 파헤친다 [4일 국감 대장정 돌입] #깡통전세 주의보 신혼부부 ‘디딤돌’ 전세대출 한도 3억 →4억으로 상향조정 #혼돈의 국민의힘 [시그널] 라이온하트 게임 하나로 4.5조?…몸값 고평가 논란 #5년간 '270만 가구' 공급 수도권 분양전환 공공임대 임대료, 시세 절반…"공급 재개해야" 이시간 주요 뉴스 영상 뉴스 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? "인도네시아 축구장 난동으로 최소 129명 사망"…무슨일 北핵무기에 버금가는 위력…한국형 '괴물미사일' 공개됐다 쭉 당기자 펼쳐진 대형 화면…삼성 "폴더블은 끝났다" 러시아판 오징어게임?…조롱거리된 '러 징집병 숙소' 인기 포토 레드카펫에 선 작은 아씨 걸그룹 센터 정의를 위해 인자한 틸다 겨울이 왔어요~ 8년만이에요 '꼭 돌아와' 불운을 막아라 오늘의 연재 인더뷰 중고장터서 운동화 세척 전문가 채용한 이유는?[인더뷰] 뒷북비즈 “취업시 100만원 드려요"…조선소, 인력난에 골머리 [뒷북비즈] 무언설태 與野, ‘농심 잡기’ 경쟁…나라곳간은 누가 지키나요 청론직설 경쟁국들 반도체 기술패권에 사활…K칩스법 서둘러 통과시켜야 서경 디지털 67개의 포토 정의를 위해 6개의 포토 인자한 틸다 27개의 포토 8년만이에요 69개의 포토 '꼭 돌아와' EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
-  </si>
-  <si>
-    <t>제주도, 하반기 우수관광사업체 지정 공모...선정방법은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 하반기 우수관광사업체 지정 공모...선정방법은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 하반기 우수관광사업체 지정 공모...선정방법은? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.10.17 16:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선을 도모하기 위해 오는 24일부터 11월18일까지 우수관광사업체 지정 공모를 진행한다고 17일 밝혔다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주특별자치도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야 업체다.이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수 관광사업체 평정위원회의 심의를 거쳐 최종 선정된다.지정 기간은 2년이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 따라 종합적으로 평가하게 된다.종합점수가 기준 점수(90점) 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급된다. 또 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>경인일보 : 제주도서 식당 여주인 집단 폭행한 중국인 관광객 7명 기소 경인일보 제보안내 경인일보는 독자 여러분의 소중한 제보를 기다립니다. 제보자 신분은 경인일보 보도 준칙에 의해 철저히 보호되며, 제공하신 개인정보는 취재를 위해서만 사용됩니다. 제보 방법은 홈페이지 외에도 이메일 및 카카오톡을 통해 제보할 수 있습니다. - 이메일 문의 : jebo@kyeongin.com - 카카오톡 ID : @경인일보 개인정보의 수집 및 이용에 대한 안내 수집항목 : 회사명, 이름, 전화번호, 이메일 수집목적 : 본인확인, 접수 및 결과 회신 이용기간 : 원칙적으로 개인정보 수집 및 이용목적이 달성된 후에 해당정보를 지체없이 파기합니다. 개인정보 수집 및 이용에 동의합니다. 기사제보 개인정보 보호를 위해 익명 제보가 가능합니다. 단, 추가 취재가 필요한 제보자는 연락처를 정확히 입력해주시기 바랍니다. *최대 용량 10MB 제보하기 전체메뉴 검색 오피니언 인천 지역 정치 경제 사회 문화 스포츠 로그인 회원가입 뉴스홈 전체기사 정치 경제 사회 문화 스포츠 사람들 기획(경기) 기획(인천) 특집 오피니언 오피니언 홈 사설 참성단 윤인수칼럼 경인칼럼 기명칼럼 데스크칼럼 월요논단 수요광장 경제전망대 춘추 칼럼 전문가칼럼 오늘의 창 노트북 기고 인천 인천 홈 정치 경제 사회 문화생활 지역 남부권 중부권 서부권 동부권 북부권 K스토리 K스토리 이슈&amp;스토리 영상·포토 리얼영상 포토 비주얼 통 큰 시리즈 경인 WIDE 경인 In-Depth 지면보기 구독신청 기사제보 검색 닫기 추천 키워드 이화영 구속 도서관의 미래 미래재단 코로나 그늘 무형문화재 인천고등법원 경기도 버스 준공영제 나의 의정일지 제물포 르네상스 지역화폐 예산 1기 신도시 인천e음 캐시백 내가 추천 인천책 경인 WIDE Editor's PICK 매출 줄고 연료비는 오르고… 경기도 버스업체 '이중고' 3년전 ASF 악몽… 마음 졸이는 파주 돼지농가 KTX 광명역, 7월 침수피해 '복구 아직' 사회 검찰·경찰·법원 제주도서 식당 여주인 집단 폭행한 중국인 관광객 7명 기소 입력 2016-10-04 14:33:24 가 가 공유하기 페이스북 카카오톡 네이버 밴드 트위터 url 복사 양형종기자 yanghj@kyeongin.com 양형종기자 기사모음 제주도 집단폭행 중국인 관광객 기소. /연합뉴스제주도에서 50대 식당 여주인을 집단으로 폭행한 중국인 관광객(유커) 7명이 재판에 넘겨졌다.제주지검은 음식점 여주인을 집단 폭행한 혐의(특수상해·공동폭행 등)로 중국인 관광객 천 모(37)씨 등 5명을 구속기소 하고 2명을 불구속 상태로 기소했다고 4일 밝혔다.이들은 지난달 9일 오후 10시 25분께 제주시 연동의 한 중국 요리 식당에서 업주 안 모(53·여)씨를 때려 뇌출혈 등의 상처를 입힌 혐의를 받고 있다.또한 싸움을 말리는 손님 정 모씨 등 3명을 발로 차고 주먹으로 때려 눈 주위의 뼈가 부러지는 완와골절 등 상해를 가한 혐의도 있다.이들은 당시 음식점에서 음식을 시켜놓고 외부에서 사온 술을 마시려다 제지당하자 밖으로 나가버렸다. 이어 음식값을 내라는 여주인의 말에 화가 나 폭력을 행사한 것으로 조사됐다.검찰은 애초 중국인 8명이 입건됐으나 1명은 범행 현장에 없었던 것으로 확인돼 기소 대상에서 제외했다./양형종 기자 yanghj@kyeongin.com &lt;저작권자 ⓒ 경인일보 (www.kyeongin.com), 무단전재 및 수집, 재배포 금지&gt; 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 &lt;!—라이브리 프리미엄 설치 코드 끝--&gt; 오늘의 경인일보 TODAY PICK 도발 대비하는… 전시행정? 남·북간 긴장 관계가 장기화하고 북한의 도발 역시 잇따르고 있지만, 군사분계선에 접한 경기북부 주민들의 안전을 위한 조치는 여전히 미흡하다.경기북부 인구에 비해 '접경지역 주민대피시설'이 턱없이 부족한 상황임에도 해를 거듭할수록 정부와 경기도의 확충 의지는 지지부진해 이와 관련한 대책 마련이 시급한 상황이다.3일 행정안전부(행안부)와 경기도에 따르면 도내 접경지역 주민대피시설 신규 설립지는 2011년 32개소, 2012년 8개소, 2013년 9개소 등 사업 초기 두 자릿수 가까이 유지했다.그러나 지난해 2개소, 올해 0개소, 내년에는 1개소에 그치는 등 최근 급격히 줄어드는 모양새다. 연평도 포격전 직후인 사업 초기 200억원 가까운 설립 예산을 투입해오던 것과 달리 최근 예산은 10% 수준으로 쪼그라들었기 때문이다.'연평도 포격'후 추가 설치 77개작년 2개 그쳐… 필요수 못 채워 접경지역 주민대피시설은 지난 2010년 연평도 포격전을 계기로 군사위협이 발생할 경우, 경.. 은행 "돈 안된다"… 인천 군·구 금고 공모전 '시큰둥' 국제유가 급등 매출 줄고 연료비는 오르고… 경기도 버스업체 '이중고통' 시정혁신준비단 인사·재정·복지·균형발전… 인천시, 혁신과제 36개 '밑그림' 고향사랑 기부제 한푼 두푼 보탠 성금 '마중물'… '인구소멸 구원투수' 등판 오늘의 사건사고 문 열린 차만 골랐다… 평택·천안 일대 차량털이 남성 검거 배재흥 기자 버스에서 옆자리 여성 성추행… 피해자 신고 받은 경찰에 검거 유혜연 기자 수원 다세대주택 지하창고 화재… 인명피해 없어 김동한 기자 경인 WIDE 구단 매각 언급에 축구팬 반발 돈줄 막힐땐 걷어차고, 비리 엮일땐 팽개치고… 시민축구단 현실 K4리그에서 활약하던 인천남동구민축구단은 올해 갑작스럽게 해체 결정을 내렸다. 해체 이유는 재정적인 어려움이었다. 2020년 K4리그 출범 때부터 리그에 참가했던 인천남동구민축구단은 남동구청의 보조금을 토대로 인천 지역 유일의 K4리그 팀으로 활약해 왔지만, 올해 남동구의 지원이 끊기자 선수들과 직원들의 임금을 주지 못하는 사태에까지 이르렀다.인천남동구민축구단 지원 조례의 유효기간을 연장하는 내용이 담긴 조례안이 상정됐지만, 네 번이나 부결되면서 남동구의회를 통과하지 못했다. 재정난 닥친 인천남동구민축구단선수 급여 지급 어렵.. 정책따라 흔들리는 지역화폐 지역화폐 동력 '인센티브'… 예산 쥔 정부만 바라본다 정부가 내년도 지역화폐 관련 예산을 전액 삭감하면서 경기지역화폐가 또 한 번 위기를 맞았다. 골목상권 보호 등을 통한 지역경제 활성화라는 공공성을 가졌지만, 예산 등 정책이 바뀔 때마다 지역화폐가 화두에 오르는 일이 반복되는 것이다.특히 국비 지원 중단은 인센티브(캐시백·할인율 등) 지급 등 지역화폐 경쟁력을 흔드는데, 지역화폐 시행 3년이 지나도록 이 같은 악순환이 계속되고 있다. 이 때문에 지역화폐의 지속가능성, 안정성을 확보하기 위한 대책 마련이 필요하다는 목소리가 나온다. 용인시민 A(33)씨는 지역화폐 '와이페이'.. 지역 시민단체 위기 각자도생의 시대, 휘청이는 시민사회 시민단체의 사회적 영향력·신뢰도는 예전 같지 않다. 특히 지역시민단체는 중앙보다 재정력이 약해 활동이 위축되고 시민들은 가입하지 않는 '악순환'이 반복된다.그럼에도 전문가와 시민단체 관계자들은 여전히 시민단체가 존재해야 한다고 말한다. 소외될 수 있는 지역주민의 목소리를 대변하고 권한이 강해진 지자체를 견제하기 위해 지역시민단체가 필요하다는 것이다.수원이주민센터, 회원 75% 줄어무관심 → 재정악화 → 활동위축이주민 인권증진·지원활동을 해온 시민단체 '수원이주민센터'의 회원은 4년 사이 400명에서 100명으로 줄었다. 회비,.. 신문사소개| 윤리강령| 고충처리| 기사제보| 구독신청| 개인정보 처리방침| 청소년 보호정책| 디지털뉴스 이용 규칙| 그룹웨어| 사이트맵 본사 :&amp;nbsp(16488) 경기도 수원시 팔달구 효원로 299 경인일보사빌딩  |  TEL :  031-231-5114   |   FAX : 031-232-1231/0339  |  구독신청 1588-3001 인천본사 :  (21556) 인천광역시 남동구 남동대로 773 3층   |   TEL : 032-861-3200   |   FAX : 032-861-3206/3209 인터넷신문등록번호 : 경기 아51587   |   등록일자 : 2017.07.17   |   ISSN 2635-9596   | 발행인/편집인 : 배상록 경인일보의 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. Copyright (c) by 경인일보 All rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도-러시아 시베리아 관광협회간 우호교류 협약 체결 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도-러시아 시베리아 관광협회간 우호교류 협약 체결 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도-러시아 시베리아 관광협회간 우호교류 협약 체결 이승현 기자 승인 2016.10.12 15:48 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도관광협회·시베리아 바이칼 관광협회와 협력…비즈니스 마케팅 우호교류 협약 [제주일보=이승현 기자]제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 11일 러시아 관광시장 확대를 위해 러시아 이르쿠츠크주에서 시베리아 바이칼 관광협회(회장 코발렌코 이고르·Kovalenko lgor)와 ‘협력 비즈니스 파트너 쉽 구축과 공동 마케팅 추진을 위한 우호교류 협약’을 체결했다.이번 협약식에는 김영진 제주도관광협회 회장과 코발렌코 이고르 시베리아 바이칼 관광협회 회장, 에카테리나 슬리비나 이르쿠츠크주 정부 관광청장, 박정남 주이르쿠츠크 대한민국총영사 등이 참석해 양 지역 관광협회간의 적극적인 조력과 지원을 약속했다. 이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 성산 관광 후 맛보는 이색 해물 맛집 &lt; 맛·멋 &lt; 라이프 &lt; 기사본문 - 중부매일 - 충청권 대표 뉴스 플랫폼 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 실시간속보 세종시문화재단, 세종-전주 교류전시 '20EE 젊은 사유' 개최 청양 '한로 걷기 축제' 개최 청양관광두레협의회, '매콤달콤 캠핑 투어' 진행 부여 백마강 코스모스 단지 디지털콘텐츠 공모전 개최 제22회 무창포 신비의 바닷길 축제 7일 개막 충주시립도서관, 향토자료 아카이브 서비스 개시 충주시, 헌정음악회 '영웅을 기리며' 선보여 제2회 충주가야금페스티벌 '우륵의 魂' 개최 미리 보는 2022제천한방바이오박람회 2022 청원생명축제, 4일만 관램객 30만명 돌파 충남, 가짜 휘발유·품질부적합 석유 판매 주유소 전국서 두 번째로 많아 비 내리는 개천절 로그인 회원가입 모바일웹 UPDATED. 2022-10-04 10:18 (화) 전체 뉴스 정치 경제 사회 교육 스포츠 연예 지역 충북 세종 대전·충남 생활문화 문화일반 공연·전시 문학·출판 종교 학술·문화재 언론 건강·의료 여행·레저 맛·멋 오피니언 사설 내부칼럼 외부칼럼 시민기자 중부매일 TV 기획·특집 연재 르포 심층·밀착 인터뷰 포럼·토론회 + 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 성산 관광 후 맛보는 이색 해물 맛집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 맛·멋 제주도 성산 관광 후 맛보는 이색 해물 맛집 기자명 디지털미디어부 입력 2016.10.10 11:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 카카오톡(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 카카오톡(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘신산포구자연산횟집’의 해물함박스테이크 [중부매일 디지털미디어부] 제주도는 일년 내내 여행객에게 인기가 좋은 여행지로 이곳을 찾는 국내외 관광객 수는 매년 큰 폭으로 증가하고 있다. 제주도관광협회에 따르면 올해 제주도 방문 관광객 수는 500만 명을 넘어섰다. 이번 500만명 돌파는 지난해보다 14일 빨랐으며, 특히 내국인 관광객의 경우 지난해 동기간 대비 14.8%나 증가한 것으로 나타났다. 제주도를 대표하는 관광지 중에서도 ‘성산일출봉’은 한라산의 360여 개 기생 화산 중 유일하게 해저에서 솟아오른 봉우리로 빼어난 경관을 선보이는 명소다. 이곳에서 감상하는 일출은 국내 대표 일출장관 중 하나로 손꼽히고 있으며, 성산일출봉과 바다의 조화가 만들어내는 경치는 탄성을 자아낸다. 이렇듯 아름다운 자연경관으로 제주도 단일 여행지 중 가장 많은 방문객을 자랑하는 성산일출봉은 ‘올인’의 촬영지로 잘 알려진 ‘섭지코지’와 가까이 위치하고 있다. 섭지코지는 성산일출봉과 함께 제주도에 오면 꼭 들려야 하는 명소로 알려져 있는데, 이곳의 감상포인트는 등대에 서서 푸른 바다와 해안 절경을 내려다 보는 것이다. 제주도에 왔다면 지역 먹거리를 맛보는 일을 빼놓을 수 없다. 성산일출봉에서 섭지코지로 가는 길목에는 ‘신산포구자연산횟집’라는 섭지코지 맛집이 위치하고 있는데, 이곳은 바로 앞에 바다가 펼쳐진 성산 맛집으로 유명하다. 주메뉴로는 해물함박스테이크, 한치해물라면, 해물모듬전복밥을 선보이고 있다. ‘신산포구자연산횟집’에서만 맛볼 수 있는 해물함박스테이크는 전복내장과 제주산돼지, 소고기를 갈아 만든 스테이크에 전복, 소라, 홍합, 딱새우, 알새우, 조개, 한치 등을 함께 곁들어낸 별미메뉴이다. 한치해물라면은 푸짐한 해산물이 들어가 있어 깊은 맛이 일품이며, 해물모듬게우밥은 전복 내장 볶은밥에 활전복, 활소라, 멍게, 한치 등을 곁들여 초고추장에 비벼먹을 수 있다. /디지털미디어부 키워드 #성산 맛집 #섭지코지 맛집 #제주도 #해물 #중부매일 디지털미디어부 newmedia@jbnews.com 다른기사 보기 저작권자 © 중부매일 - 충청권 대표 뉴스 플랫폼 무단전재 및 재배포 금지 당신만 안 본 뉴스 충북대 축제에 비비·아이브 온다 깊어가는 가을… 충청권 유명산 단풍 언제부터? 강릉 테마여행 떠난 청주 고교생 교통사고… 16명 다쳐 미래나노텍, 자사주 처분에도 주가 '훈풍' 오송 제3생명과학 국가산업단지조성사업 수용주민설명회 개최 청주시 주요 보직, 청원군 출신 싹쓸이(?)… 9개 중 8개 독식 미래나노텍, 대구에 320억짜리 공장 짓는다 충북대 축제에 비비·아이브 온다 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 세종시문화재단, 세종-전주 교류전시 '20EE 젊은 사유' 개최 청양 '한로 걷기 축제' 개최 청양관광두레협의회, '매콤달콤 캠핑 투어' 진행 부여 백마강 코스모스 단지 디지털콘텐츠 공모전 개최 제22회 무창포 신비의 바닷길 축제 7일 개막 충주시립도서관, 향토자료 아카이브 서비스 개시 기획시리즈 충청권메가시티플랫폼 대청호의 눈물 충북의 근대 교육유산을 찾아서 청년창업 CEO를 만나다 미래 유망기업에 가다 독립서점은 살아있다 숨은 알짜 중소기업을 찾아서 도란도란 우리마을 이야기 우리 학교 최고 - 칼럼 - 편집국장 칼럼 김동우 칼럼 한기현 칼럼 데스크칼럼 경제칼럼 법조칼럼 문화칼럼 기자수첩 메아리 중부시론 세상의눈 열린세상 아침뜨락 교단에서 문화 한 잔 김홍철의 건축이야기 허건식의 무예 이야기 :: 지난 기획 &amp; 시리즈 기사 :: 2021 연중기획 균형발전 중심 충청플랫폼 2020년 연중기획 지역과 통하다 아침을 여는 사람들 성공스토리 도전하는 사장님 힘내라소상공인 2019년 연중기획 청년이 미래다 정치인안녕하십니까 학교는 신나는 놀이터 충북의 최고 가게 이야기가 있는 충북 100경 핫클릭 오늘 주간 1 60이 되고 보니 2 충북 남부3군 인구증가책 살펴보니… 3 단양군의회, 단양관광공사 사장 임명 '발목' 4 "AI 영재고 설립 어디로?" 충북·광주 치열한 유치전 예고 5 술만 먹으면 주먹질 '상해치사' 50대 징역 12년 6 2022 청원생명축제, 4일만 관램객 30만명 돌파 7 '생거진천 농예문 통합축제' 앞두고 코스모스 활짝 8 비 내리는 개천절 9 인삼인줄 알고 먹었는데…증평서 교인 9명 약초중독 병원이송 10 충남, 가짜 휘발유·품질부적합 석유 판매 주유소 전국서 두 번째로 많아 1 미래나노텍, 자사주 처분에도 주가 '훈풍' 2 청주시 주요 보직, 청원군 출신 싹쓸이(?)… 9개 중 8개 독식 3 오창 에코프로비엠, 에코프로글로벌 주식 800만주 800억에 취득 4 '74주년 국군의날' 박성제 육군 제37보병사단장 5 충북교육청, 기간제 교사 성폭력 피해 발생 학교 전수조사 6 60이 되고 보니 7 인구절벽, 지방대학 위기 현실로 8 공주시 '제68회 백제문화제' 개막 9 ‘청원생명축제’ 구름 인파 10 내달 충청권 2만2천가구 분양, 전국 6만 7천가구 중부매일 하단영역 하단메뉴 매체소개 기사제보 구독신청 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 충북 청주시 흥덕구 1순환로 436번길 22 대표전화 : 043-275-3011 팩스 : 043-275-3013 법인명 : ㈜중부매일신문 제호 : 중부매일 - 충청권 대표 뉴스 플랫폼 등록번호 : 충북 가 00002 등록일 : 1990-01-15 발행일 : 1990-01-15 발행인 : 한인섭 편집인 : 이민우 청소년보호책임자 : 김지훈 Copyright © 2022 중부매일 - 충청권 대표 뉴스 플랫폼. All rights reserved. mail to newmedia@jbnews.com 위로 전체메뉴 전체기사 정치 전체 대통령실·국방·외교 의회·정당 행정·자치 정치일반 경제 전체 일반·산업 금융·증권 기업·벤처 건설·부동산 생활경제 IT 과학 사회 전체 일반 사건·사고 교육 법원·검찰 NGO·NPO 환경 인권·복지 인물 문화 전체 일반·문화 공연·전시 문학·출판 종교 학술·문화재 언론 오피니언 전체 사설 내부칼럼 외부칼럼 포토 전체 포토뉴스 스포츠·연예 전체 스포츠 연예 라이프 전체 건강·의료 여행·레저 맛·멋 시민기자 임시 영상 지역 전체 충북 세종 대전·충남 기획·특집 전체 연재 르포 심층·밀착 인터뷰 포럼·토론회 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, CCTV 확충 등 도민·관광객 안전확보 인프라 ↑↑ - CCTV뉴스 - 이광재 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend SecuTV 스토리지 금융보안 특집 안전산업특집 UPDATE : 2022-10-04 09:02 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 금융보안 특집 안전산업특집 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend SecuTV 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도, CCTV 확충 등 도민·관광객 안전확보 인프라 ↑↑ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME News 공공·정책 제주도, CCTV 확충 등 도민·관광객 안전확보 인프라 ↑↑ 이광재 기자 승인 2016.10.03 10:47 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도가 주택가 등 범죄 취약 지역에 CCTV를 늘리는 등 외국인 밀집지역에 관광경찰 집중 배치 및 순찰 강화로 범죄를 사전에 예방하고 관광치안센터 시범 운영, 이동형 관광치안버스 운영을 통해 치안공백 제로화에 나선다.제주도청제주도청은 인구 및 관광객 증가로 인해 치안수요가 급증하고 최근 중국인 관광객에 의한 잇단 강력 범죄로 도내 안전 관리에 비상이 걸린 가운데 도민안전 확보를 위한 관계기관 종합대책 회의를 개최했다.특히 올해 제주지방경찰청 통계자료에 따르면 지난 8월까지 외국인 범죄는 총 397건으로 전년 동기간과 비교해 54.4%가 증가한 것으로 나타남에 따라 이 회의를 통해 관계 기관별 공동 대응과 협력을 논의하고 도내에서 발생하는 범죄 행위에 대해 즉각 대처하는 한편 중단기 제도개선 과제 등을 망라한 종합 대책을 수립했다.이번 긴급회의에서 제주특별자치도와 제주지방검찰청, 제주지방경찰청, 제주출입국관리사무소는 도내 안전시설 인프라 조기 확충 및 도민 생활안전 확보 대책을 기관별로 발표하고 공동 협력 사항에 대해 논의했다.우선 제주특별자치도는 외국인 밀집지역에 관광경찰 집중 배치 및 순찰 강화로 범죄를 사전에 예방하고 관광치안센터 시범 운영, 이동형 관광치안버스 운영을 통해 치안공백 제로화에 나선다.강력 단속활동과 함께 방법용 CCTV 확대 설치로 도민 불안감을 해소하고 주요 CCTV에 대한 24시간 실시간 모니터링 체계 구축으로 범죄 발생시 신속한 대응태세를 마련한다.또 외국인 입국이 자유로운 싱가포르, 홍콩 등의 사례를 분석해 노비자 입국 요건, 입국 심사절차·신상정보 획득 등 제도개선 사항을 발굴해 정책에 반영할 예정이다.이와 함께 도민안전문화 정착을 위해 자치경찰과 국가 경찰간 협조체계를 구축하며 도 관광협회, 도내 대학, 다문화가족센터 등과도 연계해 나간다는 계획이다.제주지방검찰청은 중요 외국인 범죄 사건에 대해 출입국 및 외사 전담 검사를 추가로 지정하고 부장검사 주임검사제를 적극 활용해 사건의 경중과 수사 및 처벌 필요 사안을 대응할 계획이며 출국정지 기준을 마련해 적극적인 수사가 진행될 수 있도록 한다.또 상대적으로 피해자의 피해 회복이 어려웠던 외국인 범죄에 대해 엄정한 처벌과 함께 적극적인 피해자 지원을 강화한다.제주지방경찰청은 범죄 취약지역 특성에 따라 합동 집중 순찰로 범죄의지를 사전에 차단하고 외국인의 범법행위에 대해 무관용 원칙으로 엄정 대응할 계획이며 유관기관과의 협력 강화를 통해 수사 및 범죄 피해자 보호방안을 마련한다.앞으로 외국인관련 범죄 신고는 범죄유형에 관계없이 긴급신고인 ‘코드 1’로 상향 대응할 계획이며 지난 9월22일부터 백일동안 외국인범죄 특별단속기간을 운영해 도민 안전에 대한 가시적 효과를 거둘 수 있도록 순찰을 강화한다.제주출입국관리사무소는 무사증 불법체류 방지를 위한 입국심사를 강화하고 증가하는 불법체류자 관리 강화방안을 마련해 무단이탈자의 이탈 경로, 불법취업 알선 브로커 등 조사 내용을 관계기관과 적극적으로 공유할 계획이다.앞으로 제주도는 각 안전관리 대책별로 정책 협업과 안전 공조를 강화해 나가는 한편 중앙정부 건의과제인 제주지방청 외사과 신설과 이민특수 조사대 신설 등에도 공동 대응해 나갈 방침이다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 이광재 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[기고] 디지털 주권과 클라우드 데이터의 상관 관계 2[포커스온] 첨단 미래차 시대, 보안은 필수다 3사이냅소프트, 하이브리드 워크플레이스 '웍스타운(WorksTown)' 메타버스 전시회 참가 4[IT트렌드] 안전 사고 예방에 ‘디지털 트윈’ 주목 5레노버, ‘씽크시스템 서버 혁신 30주년’ 기념 제품 업그레이드 발표 6파블로항공 "드론 원천 기술로 무인 모빌리티 시장 선도하겠다" 7시옷, 하드웨어 기반의 자동차 보안 솔루션으로 글로벌 시장 공략 8삼성전자, 패션 브랜드 준지 콜라보 에디션 출시 9글로벌 가상자산 플랫폼 윈터뮤트에서 약 2300억 원 해킹 10[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 이 시각 주요뉴스 스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 휴네시온, 한국거래소 주관 코스닥 라이징스타 선정 휴네시온, 한국거래소 주관 코스닥 라이징스타 선정 굿모닝아이텍-인포블록스, SaaS 및 클라우드 보안 향상 위한 파트너십 굿모닝아이텍-인포블록스, SaaS 및 클라우드 보안 향상 위한 파트너십 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
-  </si>
-  <si>
-    <t>관광자원 풍부한 제주도 서부지역… 오피스텔 `킹덤레지던스 협재` 활발한 분양 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 관광자원 풍부한 제주도 서부지역… 오피스텔 `킹덤레지던스 협재` 활발한 분양 인터넷마케팅팀 입력: 2016-10-05 10:22 제주도는 지금껏 서부 지역을 중심으로 풍부한 관광자원 개발이 이뤄졌다. 특히 지난 2007년을 기준으로 총 30여 개 사업에 약 7조원 가량이 투자됐으며, 이는 신화역사공원을 비롯해 각종 리조트와 골프장, 유원지 등이 대표적이다. 지역 관계자는 "해마다 제주도의 관광자원은 늘어나고 있으며, 관광객의 증가 또한 급속도로 이뤄지고 있다"며, "때문에 다양한 수요자들을 충족시킬 수 있는 생활주택이나 오피스텔 등의 공급이 절실한 실정이다"고 전했다. 이에 제주시 한림읍 옹포리 일대에 들어서는 제주도 오피스텔 '킹덤레지던스협재'가 본격적인 분양에 나서 수요자들 사이에서 관심을 받고 있다는 소식이다. 지하 1층~지상 8층 총 16개 타입, 135실로 구성된 해당 오피스텔은 내진설계를 강화해 6.0의 진동에도 버틸 수 있도록 설계돼 지진 안전에 민감함 수요자들의 높은 만족도를 보일 것으로 기대를 모은다. 해당 제주도 오피스텔 내부에는 최첨단 빌트인 풀옵션 시스템이 마련되며, 호텔 수준의 식사를 제공하는 식당은 물론 자연을 만끽할 수 있는 글램핑장과 스카이바의 조성으로 제주도에서의 쾌적한 생활이 가능할 것으로 전망된다. 분양 관계자는 "최근 이슈가 되고 있는 내진 설계는 물론 다양한 편의시설과 인프라 구축을 통해 임대수익이나 시세차익을 올리려는 투자자들은 물론 실입주를 원하는 수요자들을 모두 만족 시킬 수 있을 것으로 보인다"고 전했다. 차량으로 30여 분 거리에 제주국제여객터미널과 제주국제공항이 위치해있는 '킹덤레지던스 협재'는 '휘문건설주식회사'가 시공을, '제주킹덤씨티주식회사'가 시행을 맡았으며, 계약자들을 위해 현재 중도금 전액 무이자 혜택을 제공 중이다. 한편, 홍보관은 제주특별자치도 제주시 노형동 일대에 위치해 있다. cskim@dt.co.kr [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 좌표찍기·언론탄압? 대통령실, 4년전 靑대변인 본받았다면…[한기호의 정치박박] [The Car] “해외서는 G80보다 우위”…입지 공고해지는 제네시스 G70 中 20차 당대회 끝나면 대만이 위험하다[박영서의 글로벌 아이] [THE GAME] 넥슨, 신작 잭팟에 인재 채용… 흥행 영수증 잇는다 이 시간 핫클릭 김기현 폭발, 이재명 겨냥 “형수에 욕설 퍼붓고도 큰소리 뻥뻥…기가 찰 노릇” 김건희 박사 논문, 심사위원 5명 필적 "동일인 추정" 감사원 `서해피살` 문 전대통령 정조준…與 "`월북 명예살인` 규명 당연" 국힘 "MBC 尹 발언 왜곡보도후 美백악관에 이간질까지…`바이든` 자막의도 밝혀야" 가장 많이 본 기사 문화일보 핫 뉴스1이스라엘 유적지서 동로마시대 금화 무더기 발굴 2국무총리 정세균?...포항지진피해심의위, 홈페이지 방치하고 태풍 힌남노 복구 기간에 지원금 환수 절차 3“상상도 못할 말로 우릴 씹어대”…박연수, 가족 험담에 분노 4노벨 생리의학상에 ‘인류 진화’ 연구자 스반테 페보 5영국발 금융위기론 촉발한 대규모 감세 정책, 열흘 만에 ‘백기’든 신임 총리 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
-  </si>
-  <si>
-    <t>동남아 관광객 대상 제주도관광 활성화 방안 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 동남아 관광객 대상 제주도관광 활성화 방안 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 오피니언 제주칼럼 동남아 관광객 대상 제주도관광 활성화 방안 뉴제주일보 승인 2016.10.05 19:09 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 곽재우. 제주한라대학교 외식산업경영학과 교수 [제주일보] 요즘 같은 불황기에 중국인들의 한국 방문은 관광수익을 올리는데 반가운 일이다. 그러나 수익이라는 경제적 가치만으로 이들의 방문을 마냥 두 팔 벌려 환영할 수 있는 것만은 아니다. 이들로 인해 발생하는 부작용은 사회적으로 큰 우려를 낳고 있는 상황이며, 특히 중국인들이 많이 몰리고 있는 제주도는 이들로 인한 범죄가 급증하고 있다.2015년 제주도 외국인 관광객(262만 명)중 중국 관광객은 223만 명으로 85.3% 차지하였고, 일본 등 타 국가 관광객은 감소하거나 정체 상태로 중국 관광객 편중이 상당히 심각하다. 이를 해결하기 위한 방안으로 동남아시아, 특히 베트남 관광객을 유치하는 방안을 고려해 볼 수 있다.베트남인의 해외관광은 매년 10~12%의 성장세를 보이고 있다. 이들 해외 여행의 주 국가는 캄보디아, 태국, 라오스이고 그 외 일정기간 비자가 면제되는 싱가포르, 말레이시아 등 주로 동남아시아 국가이다. 현재 제주도를 방문하는 베트남인대부분은 순수 관광목적으로 방문하고 있다. 이들의 정기적인 방문, 재방문 등을 위해서는 민간 또는 정부공사단위 차원의 지속적인 경제교류관계를 구축하는 것이 필요하다.제주도와 베트남의 상호 경제교류를 위한 추천 아이템으로, 제주도에서 베트남으로의 소매 무역으로 물, 우유, 과일주스 등의 식음료, 교육으로는 인턴십, 한국어학연수 등이 있다. 또 인력교류를 통해 선진관광시스템을 전파하는 하는 것도 해당될 수 있다. 베트남에서 제주도로의 소매 무역으로는 커피(원두), 목재 등의 원재료, 리조트 개발 및 투자 등이 있다. 또 인력교류를 통한 서비스인력양성 기술교육 등도 해당될 수 있다. 그리고 베트남인 해외여행 인구의 29%가 공무 또는 업무상 목적인 것을 고려할 때 제주도가 단순 소비성 지출중심의 지역이 아닌 상호 경제적 이익이 발생하는 다중목적 여행대상 지역으로의 전환이 필요하다.이와 함께 베트남인들을 대상으로 한 제주도 관광 홍보 방식의 다양화도 필요하다. 지금까지 베트남 내 제주도 관광 홍보는 오프라인상의 단발성 이벤트 (관광 박람회, 문화행사, TV 프로그램 등) 및 특정지역 리조트, 여행사 등 관광유관 단체의 자발적 협조를 구하는 소극적·지엽적 홍보가 대다수였다.현재 베트남의 2대 여행사인 Viet Travel, Saigon Tourist의 경우 온라인상에서는 제주여행에 대한 상품 또는 홍보를 하지 않고 있는 만큼 실질적으로 제주도 관광에 대해 베트남 내 대중적인 홍보는 단절된 상태이다. 이에 제주도에 대한 인지제고를 위해서는 구글, 페이스북, 유튜브, Zing(베트남 포털)등의 대중적 홍보매체를 활용하고 경제교류와 연관된 행정기관, 공사, 정부부처 등의 유관단체의 지속적 협조가 필요하다.이와 더불어 제주도내 관광 인프라 확보도 필요하다.베트남인의 제주도 관광은 순수관광, 문화체험, 쇼핑, 카지노 등으로 제주도가 자체적으로 구축한 관광 인프라에 맞춰 여행 일정이 진행되며, 여행 중 정보 습득 출처의 대부분은 가이드, 관광지 설명 책자, 숙박시설의 직원 등을 통해서다. 그러나 베트남 여행객들은 외국어능력(영어)이 높지 않으므로 베트남어가 가능한 베트남인 가이드, 숙식, 쇼핑, 카지노 내 베트남 서비스 인력 등을 배치하는 것이 필요하다.이외에도 특정 국가, 국적 대상 관광 인프라를 개발하고 구축하는 것은 효율성의 관점에서 판단하는 것이 당연하므로 첫 번째로 언급한 민간경제교류가 정상화될 경우 자연스럽게 베트남인 대상의 관광인프라 구축이 이어질 것으로 판단된다. 그리고 현재 빈번히 발생하고 있는 불법체류자 또는 불법이탈자 관리는 민간경제교류가 이어지고, 제주도내 베트남인 취업제도의 합법화가 진행된다면 베트남 경찰, 정보기관 및 제주도 내 양성화된 베트남 경제주체(기업, 단체, 개인)의 자발적인 참여로 불법이탈자 근절이 가능하다고 본다.이상에서 살펴본 여러 가지 방안들을 고려하고 활성화해 나간다면, 머지않아 도내에 베트남 관광객을 포함하여 동남아 관광객들도 상당수 증가할 것이다. 뉴제주일보  cjnews@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 뉴제주일보 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>‘한라산 등반’ 잊지 못할 수학여행의 추억 성광여고 1학년, 지난 4~7일 ‘제주도 현장체험학습’…지형&amp;체험을 주제로 관광지 탐방 - 울산매일 2022.10.4 화 로그인 회원가입 페이스북 트위터 인스타그램 카카오스토리채널 기사제보독자투고 광고신청 구독신청 전체 뉴스Now 오피니언 사설 반구대 매일시론 경제칼럼 자치시대 문화산책 현장소리 사는이야기 기고 뉴스에세이 아침을 여는 시 데스크 칼럼 기자의 눈 울산의 창 남은우의 시산책 흑백사진 속으로 하주의 공연읽기 박용하의 문화읽기 배창호의 영화읽기 기타 오나경의 21세기미술관 김병길주필 회상록 울매詩選 허명·이인호의 문화 줌인 예채영의 미술읽기 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 정치 종합 지방의회 국회/정당 행정/외교 북한/통일 대통령실 선거 기타 경제 기업 경제단체 금융/증권 유통 건설/부동산 해운/항만 농축수산업 중소기업 기타 사회 노동 환경/생태 교육 자치단체 검찰/법조 사건/사고 사회단체 기타 문화 공연 전시 축제/행사 향토문화사 문화재 문학/출판 영화 울산맛집 종교 울산 방송가 김일훈의 민속을 말하다 김창일의 울산 농어촌 사계 박영식 시인의 육필의 향기 드론으로 보는 울산의 문화재 민용기의 POP과 JAZZ 태화강재즈페스티벌 음악에세이 연재 문화정책 육필의 향기 렌즈속 이야기 기타 김태환 연재소설 수상 집콕문화생활즐기기 울산 여성독립운동 톺아보기 울산 지질지형유산 둘러보기 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속 풍경 렌즈 속 이야기 화보 남북정상회담 U TV 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 카드뉴스 415 중구 415 남구갑/을 415 북구 415 동구 415 울주군 덕질의 세계 사람과삶 사람과삶 외신 연예 방송 연예가 영화 음악 기타 스포츠 축구 야구 농구 골프 울산체육 기타 지방 부산 양산 기타 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 부동산 해오름 문화유산탐방 건강의료 울산야생화 탐사 기타 생활정보 날씨 행사 경제지표 오늘운세 로또 건강생활Q&amp;A 경매 생활법률 회화-중국어 회화-영어 고용/노동 Q&amp;A 증권 정보과학 기타 열린마당 본사알림 알림 부음 결혼 인사 모집 독자권익위원회 청소년기자 뉴스 뉴스NOW 정치 지방선거 경제 사회 문화 사람과삶 외신 연예 스포츠 지방 울산 부유식해상풍력 민간사업자, 정치프레임에 '발동동' 與 vs 李 ‘가처분 3차전’ 격돌 … 비대위, 다음주 중대기로 "대기업·지자체 협력 통해 ‘ESG 경영’ 인식 변화부터" "코닿을 거리에 게이트볼장 웬말" 방어동 주민 반발 오피니언 사설 매일시론 경제칼럼 자치시대 문화산책 사는이야기 현장소리 기고 뉴스에세이 반구대 울산의 창 데스크 칼럼 기자의 눈 아침을 여는 시 오나경의 21세기 미술관 김병길주필 회상록 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 [김진영의 울산여지도] 태화, 울산 풍수의 양기가 맺힌 땅 [현장소리] 사회안전망 구축, 서비스 질 제고의 큰 전환점 [김대식 칼럼] 지도자 성공의 리더십, 이건희 회장에게 배운다 [사는이야기] 퍼터(Putter)와 에티튜드(Attitude) 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속풍경 렌즈 속 이야기 화보 배호 그림세상(2022.9.29) 배호 그림세상(2022.9.28) 배호 그림세상(2022.9.27) 배호 그림세상(2022.9.26) 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 해오름 문화유산탐방 건강의료 기타 국산모델 수출 등 기술력은 충분 … 상용화 머지않았다 소비에 ‘가치’ 부여 … 다이닝에도 ‘제로웨이스트’ 바람 대중교통 선진지 이끄는 트램, 관광자원 역할도 ‘톡톡’ "누구든 ‘유쾌한 고발자’될때 ‘탄소 발자국’도 줄어" 신문보기 PDF 보기 4-15 총선공약 "질문 배달 왔어요" 중구 남구갑/을 북구 동구 울주군 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 [about울산전국체전] 최초·최연소 신화 ‘다이빙여제’ … "최선다해 즐기겠다" ESG중심 지역사회 가치 성장을 위한 2022 울산포럼 개최｜SK그룹X울산상의 "&gt;SK 최태원 회장, "울산에서 로컬대전환 해법찾자" 색소폰 연주로 귀호강, 2022 전국색소폰경연대회 현장 인터랙티브+ 통합검색 기사검색 상세검색 상세검색 검색기간 전체 1년 한달 일주일 3일 오늘 ~ 섹션별 섹션을 선택해주세요. 뉴스Now 오피니언 정치 경제 사회 문화 포토 U TV 사람과삶 외신 연예 스포츠 지방 기획 생활정보 열린마당 핫이슈 라이프 21대 국회의원선거 지방선거 엔디테스트 검색영역 전체 제목 부제목 제목+부제목 제목 + 본문 본문 기자 콘텐츠 범위 전체 기사내 사진 포함 기사내 동영상 포함 검색어 검색 초기화 상단여백 다음 이전 Home 열린마당 청소년기자 ‘한라산 등반’ 잊지 못할 수학여행의 추억 성광여고 1학년, 지난 4~7일 ‘제주도 현장체험학습’…지형&amp;체험을 주제로 관광지 탐방 페이스북 트위터 카카오스토리 밴드 메일 프린트 HOME 열린마당 청소년기자 ‘한라산 등반’ 잊지 못할 수학여행의 추억 성광여고 1학년, 지난 4~7일 ‘제주도 현장체험학습’…지형&amp;체험을 주제로 관광지 탐방 21면 기사보기 신문보기 JPG / PDF 오효민 성광여고 승인 2016.10.16 22:30 댓글 0 구글+ 블로그 밴드 카카오스토리 트위터 페이스북 메일보내기 인쇄하기 뉴스NOW 與 "전직 대통령이라고 성역 있을 순 없어"사원 서면조사 요구에 문 "대단히 무례한 짓"'박진 해임안' 與 불참 속 野 단독 본회의 처리이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵'尹대통령, 오늘 해리스 美부통령 접견…북핵 논의北, 도발수위 높이나…美, 주시 속 北 핵실험 경고'러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 '쌍방울 뇌물 협의' 이화영 구속'위례신도시 211억 특혜' 유동규·남욱·정영학 기소오늘부터 오미크론 대응 개량백신 접종 사전예약尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선"코로나 출구전략 속도내는 정부…다음 수순은'빅스텝 공포'…서울 아파트 수급지수 80선 무너져한미일 외교장관, 뉴욕서 회담…"북핵 긴밀 공조"尹대통령-기시다, 결국 만났다, 30분 정상회담 美, 3연속 자이언트 스텝…한미 금리 재역전3년만에 뉴욕에 모인 각국 정상 유엔 총회 기조연설 개막尹대통령 "국제사회 연대로 자유 지켜야 대한민국 책임 다할 것"엘리자베스 英여왕 세계와 영국에 작별 고하고 영면尹, 조문록 작성…"여왕과 동시대 공유해 영광이었다" 열기/닫기 닫기 뉴스NOW 與 "전직 대통령이라고 성역 있을 순 없어" 3시간 전 사원 서면조사 요구에 문 "대단히 무례한 짓" 10시간 전 '박진 해임안' 與 불참 속 野 단독 본회의 처리 4일 전 이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵' 4일 전 尹대통령, 오늘 해리스 美부통령 접견…북핵 논의 5일 전 北, 도발수위 높이나…美, 주시 속 北 핵실험 경고 5일 전 '러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 6일 전 '쌍방울 뇌물 협의' 이화영 구속 6일 전 '위례신도시 211억 특혜' 유동규·남욱·정영학 기소 7일 전 오늘부터 오미크론 대응 개량백신 접종 사전예약 7일 전 尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 8일 전 코로나 출구전략 속도내는 정부…다음 수순은 8일 전 '빅스텝 공포'…서울 아파트 수급지수 80선 무너져 11일 전 한미일 외교장관, 뉴욕서 회담…"북핵 긴밀 공조" 11일 전 尹대통령-기시다, 결국 만났다, 30분 정상회담 12일 전 美, 3연속 자이언트 스텝…한미 금리 재역전 12일 전 3년만에 뉴욕에 모인 각국 정상 유엔 총회 기조연설 개막 13일 전 尹대통령 "국제사회 연대로 자유 지켜야 대한민국 책임 다할 것" 13일 전 엘리자베스 英여왕 세계와 영국에 작별 고하고 영면 14일 전 尹, 조문록 작성…"여왕과 동시대 공유해 영광이었다" 14일 전 ▲ 오효민 성광여고 성광여고 1학년 학생들은 지난 4일부터 3박4일간 아주 특별한 수학여행을 다녀왔다. 고등학교수학여행은 누구에게나 잊지 못할 추억이자만 이번 성광여고 수학여행은 태풍 ‘차바’ 영향으로 아주 특별한 여행이 됐다. 수학여행일정이 막 시작했을 때 태풍이 제주도로 북상한다는 소식이 전해졌다. 이에 성광여고 학생들은 우산과 우비를 단단히 챙겨 태풍을 맞설 준비를 했다. 다행히 일기예보와 달리 태풍은 5일 새벽을 지나고 잠잠해졌고 아침에는 파란 가을하늘을 볼 수 있었다. 이후 성광여고 학생들은 4팀으로 나뉘어 관광지를 찾아다녔고 특히 2팀은 ‘지형&amp;체험’을 주제로 한라산 어리목 코스를 등반했다. 등반도중 중도포기선언과 작은 부상이 있었지만 선생님들의 격려로 무사히 등반에 성공했다. ▲ 성광여고 2팀은 지난 6일 한라산 어리목 등반 후 기념사진을 촬영했다. 성광여고 김명화 교장선생님은 “성광여고 학생들이 운이 참 좋고 끝까지 포기하지 않고 등반에 성공한 우리 학생들이 자랑스럽다”며 격려했다. 3일째 밤에는 ‘쫌 노는 성광언니들’이라는 재치있는 주제로 성광여고 학생들의 장기자랑이 이어졌다. 요즘 인기있는 파인애플아저씨의 ‘PPAP'춤을 시작으로 임창정, 울랄라세션 등 친구들과 함께 연습한 춤으로 무대에 올랐다. 이번 성광여고 수학여행은 태풍으로 시작해 조금 무모했지만 학생들의 열정 때문인지 아주 특별하고 잊지 못할 수학여행이 됐다. &lt;저작권자 © 울산매일, 무단 전재 및 재배포 금지&gt; 저작권 문의 오효민 성광여고 이메일 icon오늘의 인기기사 3년만에 전면 대면 울산옹기축제 42만명 몰려 '북새통'[반구대] ‘황제도피의 끝’완전개통 이예로 달려보니 … 남북 ‘30분 생활권’ 맞네(사설) 여전히 부족한 울산 도로망, 정부 투자 끌어내야태화강국가정원에 울려 퍼진 재즈선율 시민들'힐링' 3년만에 전면 대면 울산옹기축제 42만명 몰려 '북새통' 댓글 (200자평) 0개 전체보기 200자까지 쓰실 수 있습니다. 등록 ※ 비속어와 인신공격성 글 등은 바로 삭제됩니다. 특히, 근거 없는 글로 타인의 명예를 훼손하면 민·형사상 처벌을 받을 수 있습니다. [댓글(200자평)운영규칙 보기] 첫번째 댓글을 남겨주세요. 여백 회원사 한국신문협회 한국기자협회 한국사진기자협회 한국ABC 제휴사 중앙일보 워싱턴포스트 블룸버그 중국 長春日報 노컷뉴스 회사소개 광고안내 불편신고 제휴안내 개인정보취급방침 이메일무단수집거부 청소년보호정책 청탁금지법 현황 울산광역시 남구 두왕로 337-1 리더스파크  |  대표전화 : 052-243-1001  |  팩스 : 052-271-8790  |  사업자번호 : 620-81-14006 등록번호 : 울산,아01104  |   등록날짜 : 2017년 7월 13일  |  발행·편집인 : 이연희   |  청소년보호책임자 : 강정원 Copyright © 2022 울산매일. All rights reserved. 온라인 컨텐츠 및 뉴스저작권 문의 webmaster@iusm.co.kr RSS 서비스 Back to Top</t>
-  </si>
-  <si>
-    <t>각종 제주 관광지 인접… 제주도 오피스텔 ‘킹덤레지던스 협재’ 공급 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-04 10:05 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 각종 제주 관광지 인접… 제주도 오피스텔 ‘킹덤레지던스 협재’ 공급 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 각종 제주 관광지 인접… 제주도 오피스텔 ‘킹덤레지던스 협재’ 공급 이경옥 기자 승인 2016.10.07 10:04 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 킹덤레지던스 협재 홍보관 내부.[국토일보 이경옥 기자] 제주시 한림읍 옹포리 일원에 들어서는 ‘킹덤레지던스협재’가 투자자와 실수요자들의 큰 관심을 얻고 있다.이 오피스텔은 지하 1층~지상 8층 및 135실로 구성된다. 또한 16가지의 다양한 평면 타입으로 수요자들의 취향에 맞는 폭 넓은 선택권을 가지는 것이 특징이다.‘킹덤레지던스 협재’ 내부는 피트니스센터와 골프연습장, 편의점, 커피숍, 옥상 글램핑장, 라운지바 등이 조성되며, 무인경비시스템과 빌트인 풀옵션 가전으로 입주자들의 편의를 도모했다.뿐만 아니라 이곳 주변에는 협재해수욕장과 비양도, 곽지과물해변, 새별오름, 한림공원 등 제주도의 유명 관광지가 인접해 있어 국내외 관광객의 유입률이 높은 상태로 많은 수요를 보일 것으로 기대를 모은다.이 외에도 제주국제공항이 차량으로 30분 거리에 위치해있으며, 신화역사공원과 영어교육도시 각 20분 등 쾌적하고 편리한 생활을 누릴 수 있을 것으로 전망된다.분양 관계자는 “최근 이슈로 떠오른 지진에 걱정 없도록 해당 제주도 오피스텔은 리히터 규모 6.0에도 견딜 수 있는 내진설계가 적용돼있어 안심하고 편안하게 지낼 수 있을 것이다”고 전했다.한편, ‘킹덤레지던스협재’는 현재 중도금 전액 무이자 혜택을 제공하며, 최초 2년 동안의 임대료를 선 지급하고 3년부터는 1년 간의 임대료를 3년 간 선 지급하는 방식으로 이뤄진다. 또한 연 7.5%씩 5년간 37.5%를 보장한다.킹덤레지던스협재는 휘문건설이 시공하고, 제주킹덤씨티주식회사가 시행을 맡았다. 자금관리사는 생보부동산신탁이다.홍보관은 제주특별자치도 제주시 노형동에 위치해 있으며, 현재 방문하는 이들을 위한 상담을 진행 중이다.이경옥 기자 kolee@ikld.kr 저작권자 © 국토일보 무단전재 및 재배포 금지 이경옥 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1롯데건설, ‘창원 롯데캐슬 하버팰리스’ 분양 2계양구에 시세보다 저렴한 아파트 ‘인천 작전 한라비발디’ 본격 분양 3구미국가산업단지 품은 핵심 배후주거지 'e편한세상 구미상모 트리베뉴' 주목 4휴스틸, 상반기 영업이익 1천억원 달성에 이어 과감한 승부수 던져 5만점입지에 낮은 분양가 'e편한세상 사천 스카이마리나' 호평 6우미건설, 10월 '음성 우미린 풀하우스' 분양 앞두고 '우미린 카페' 운영 7대우 vs 롯데, 한남2구역 재개발 한판승부 8매탄동 동남빌라 재건축지역주택조합, 창립총회 개최 9[심층취재] 건축자재 화재 안전성능 검증제도 현실성 결여 ‘문제’ 10첨단 기술력 갖춘 스마트홈 '더샵 군산프리미엘' 본격 분양개시 최신기사 “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” SRT 부정승차 방지 위한 특별 기동검표 강화 현대건설-인천항만공사, ESG 경영 공동추진 업무 협약 체결 현대건설-인천항만공사, ESG 경영 공동추진 업무 협약 체결 포스코건설, 신반포 청구아파트 리모델링 사업 수주 포스코건설, 신반포 청구아파트 리모델링 사업 수주 유경준 의원, LH 수요예측 실패… ‘분양·임대주택 청약미달’ 지적 유경준 의원, LH 수요예측 실패… ‘분양·임대주택 청약미달’ 지적 ‘시화 MTV 디아티크’ 이달 분양 ‘시화 MTV 디아티크’ 이달 분양 중도금 전액 무이자 혜택… 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 중도금 전액 무이자 혜택… 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
+    <t>제주도, 민관합동 中 관광객 안전문화 캠페인 연중 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 민관합동 中 관광객 안전문화 캠페인 연중 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 민관합동 中 관광객 안전문화 캠페인 연중 전개 기자명 고병수 기자 입력 2016.10.25 10:28 수정 2016.10.25 10:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주도는 최근 급증하는 중국인 관광객들의 범죄를 미연에 방지하고 안전한 제주여행을 홍보하기 위한 안전문화 홍보 캠페인이 민관 합동으로 연중 실시된다고 25일 밝혔다.이에 따라 24일 중국관광객이 많이 찾는 제주시 바오젠거리와 신라면세점 일대에서 道, 행정시, 자치경찰, 안실련 등 기관․단체가 합동으로 홍보 캠페인을 전개했다.이날 홍보 캠페인에 행정과 유관단체 직원 40여명이 참여했다.민관합동 홍보는 중국인을 포함한 외국인 관광객 대상으로 무단횡단, 쓰레기 무단 투기, 노상방뇨, 음주소란, 불안감 조성 등 안전사고와 강력 범죄로 이어질 수 있는 기초질서위반행위 경감을 위해 추진됐다. 또한 전세버스 회사와 운전자 대상으로 여행 시 범죄예방과 교통사고 예방을 위해 제주지방경찰청과 합동 제작한 홍보 동영상을 배부하고 이를 중국인 단체 관광객 탑승 후, 관광지간 이동 중에 버스 내에서 홍보하도록 협조를 요청할 계획이다.관계자는 "그간 내국인 대상으로 한정해 실시하던 안전문화 정착을 위한 홍보 활동을 외국인 관광객으로까지 확대해 앞으로 월 1∼2회 민관 합동으로 홍보 캠페인을 지속해 펼쳐나갈 계획"이라며 "이를 통해 최근 제주 사회에 불안요소인 외국인범죄에 대한 불안요소를 불식시켜 나갈 계획"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>논란 빚는 오라관광단지 도의원 문제 제기에 제주도 “책임져라” : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야” 서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라”‘위법 감사·대통령실 직보’ 논란 최재해·유병호, 공수처에 고발돼박홍근 “대통령실 기획, 감사원 하청 ‘대감 게이트’…공수처 수사해야” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 윤 대통령, 일제고사 부활 선언…“원하는 모든 학교 참여토록” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리 달 남극 탐사, 미-중 경쟁…선점하면 기지 건설도 앞선다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 논란 빚는 오라관광단지 도의원 문제 제기에 제주도 “책임져라” 등록 :2016-10-25 16:52수정 :2016-10-25 17:46 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 도의회 강경식 의원 “관피아·원 지사 관여한다는 의혹 있다”며 문제 제기 제주도는 이례적 유감 표명 이어 해명 촉구하며 법적 책임 거론 제주시 오라관광단지 개발사업을 두고 제주도의회 강경식 의원(무소속)의 발언이 제주도를 발칵 뒤집어놓고 있다. 강 의원은 지난 21일 임시회 본회의에서 5분 발언을 통해 “제주도가 각종 특혜를 주는 밀어주기 행정행위를 하고 있다”며 “개발사업자 뒤에는 이름만 거론하면 알만한 사람들이 월급을 받으며 관피아 노릇을 하고 있다는 소문이 무성하고, 원희룡 지사 또한 이 사업에 깊이 관여돼 있다는 의혹까지 제기되고 있다”고 말했다. 강 의원의 발언에 제주도가 강하게 반발하면서 제주도와 도의회 간의 갈등이 커지고 있다. 도는 강 의원이 발언한 날 “강 의원이 근거 없는 의혹을 제기해 유감”이라고 즉각 논평을 냈다. 또 24일에는 ‘해명’을 촉구하는 보도자료를 내어 법적 책임을 묻겠다는 뜻도 시사했다. 도는 이 자료에서 “더 이상 혼란을 방지하기 위해 무책임한 의혹 제기는 전혀 사실무근으로서 결코 묵과할 수 없다”며 강경 대응 방침을 밝혔다. 도는 강 의원이 제기한 △관피아 노릇을 하는 자가 누구인지 △원 지사가 관여돼 있다는 의혹은 무엇인지 밝혀달라고 요구했다. 도는 “강 의원이 납득할만한 해명을 못 하면, 아니면 말고 식의 근거 없는 의혹 제기에 대한 책임을 져야 한다”며 법적 책임을 묻겠다는 뜻도 밝혔다. 그러자 강 의원은 기자들과 만나 “팩트(사실), 정보에 따라서 5분 발언을 했다. 도의원을 협박하고 싶으면 도청이 고발을 해도 좋다”고 맞섰다. 강 의원은 “행정사무감사가 끝나면 오라관광단지 문제에 대해 의혹을 제기했던 부분에 대해 명확하게 밝히겠다”고 말했다. 강 의원의 발언에 반발이 잇따르자 김경학 의원(민주)도 강 의원을 거들고 나섰다. 김 의원은 25일 오전 행정사무감사에서 “도의회 본회의장에서 한 5분 발언 이후 황당한 일이 벌어지고 있다. 어제(24일) 5분 발언을 한 도의원에게 제주도가 책임 추궁을 하고, 경제단체에서는 조속히 사업을 추진하라는 성명을 냈는가 하면, 마을주민들은 의원실까지 찾아가서 항의했다. 사업에 대한 본질은 사라지고 도정과 의원간 갈등 양상이 되고 있다”고 지적했다. 김 의원은 “오라관광단지는 제주시민과 제주도민의 삶 전체에 영향을 주기 때문에 최적의 대안을 찾아보기 위해 의회에서 지적도 하고, 강 의원도 그런 취지에서 발언한 것이다. 도에서 이런 식으로 하면 안 된다”고 비판했다. 오라관광단지 개발사업은 제주시 오라2동 해발 350~580m 중산간 일대 357만5천㎡의 터에 사업비 6조2800억원을 투자해 복합리조트를 건설하는 사업이다. 이 사업은 제주 개발 역사상 최대 규모의 사업이지만 경관훼손 등 환경파괴와 교통문제, 지하수, 상·하수도, 쓰레기 과다 발생 등 논란이 일고 있다. 허호준 기자 hojoon@hani.co.kr 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. ‘노모 생신’ 시골에 모였다가 일가족 5명 숨져…“일산화탄소 중독” 3. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 4. 무등산 정상 복원하려는데…군부대 주둔 전 사진이 없다 5. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>"제주도·도민 주체 지역밀착형 문화예술관광 기반 구축을" &lt; 석학과 함께 \'더 큰 제주 70년\'의 길을 찾는다 &lt; 지난 연재 &lt; 기획 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 기획 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 진행 연재 지난 연재 본문영역 이전 기사보기 다음 기사보기 "제주도·도민 주체 지역밀착형 문화예술관광 기반 구축을" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 기획 지난 연재 석학과 함께 '더 큰 제주 70년'의 길을 찾는다 "제주도·도민 주체 지역밀착형 문화예술관광 기반 구축을" 기자명 박훈석 기자 입력 2016.10.21 10:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 석학과 함께 '더 큰 제주 70년'의 길을 찾는다 8. 김향자 한국문화관광연구원 선임연구위원 김향자 한국문화관광연구원 선임연구위원은 1961년 출생. 서울시립대 조경학과 졸업후 서울대 환경대학원 석사, 경기대 대학원 관광개발학과에서 경영학 박사 학위를 취득했다. 1987년부터 교통개발연구원·한국관광연구원 재직후 2002년 12월부터는 한국문화관광정책연구원에서 연구처장 및 관광산업 연구실장 등을 역임했다. 또 공동저서 5편과 다수의 논문은 물론 국회와 중앙부처, 서울시 등 지자체의 위원으로 활동하면서 지역관광계획·관광자원개발·섬관광·도시관광의 전문 식견을 제시하고 있다. 양적성장 자연환경 훼손, 외부 자본 대규모 개발 이익금 역외 유출관광객 문화 경험, 도민 사회적 경제공동체 지속적 자립 구조 당부업체 자율규약 건전시장 육성, 고급상품 단체 유치 인센티브 줘야대기업 면세점 기금 부과 당연…징수액 특화상품 개발규정도 필수#제주 관광산업 전반에 대한 진단은=양적 성장 측면에서 제주도 방문객이 1300만명을 넘어선 것은 대단하다. 양적성장은 저비용항공사 취항 및 제주올레 등으로 촉발된 내국인 및  중국방문객 증가가 크게 기여했지만 제주사회에 다양한 문제도 남겼다. 시설 개발로 중산간 곶자왈 등 자연 훼손은 물론 도시의 확산과 도심의 쇠퇴, 도민의 상대적 박탈감이 상승하고 있다. 뿐만 아니라 대규모 리조트나 호텔 등은 외부자본으로 개발이 이뤄지면서 관광 이익의 역외유출도 심화되고 있다. 특히 저가관광, 지나친 경쟁 등으로 인해 제주관광 만족도가 낮아지고 이미지도 떨어지고 있다.#제주미래비전이 제주형 관광콘텐츠 다양화 및 매력도 향상을 위해 제시한 지역기반 청정 에코투어리즘 활성화 및 지역밀착형 문화예술관광 기반 구축은 무엇인가=지역기반 청정 에코투어리즘은 지속가능한 제주를 위해 자연환경의 보전과 이용 활성화를 목표로 했다. 세계자연유산 및 지질공원 등 제주 자연환경의 보전·관리를 통한 생태관광 육성, 제주도 농어촌 1차산업을 관광과 연계한 6차산업화 추진이 골자다. 또한 지역밀착형 문화예술관광기반 구축은 지역문화예술인들이 모이고 주민들과 소통하는 문화예술 플랫폼 구축과 주민 참여 지역밀착형 축제 육성, 창작 문화 활성화 문화생태계 지원을 담고있다. 다시말해 2개 방향 모두가 제주도와 도민 주체로 진행되는 것임을 강조한 것이다. 지역기반, 지역밀착형은 도민의 생활과 지역환경을 기반으로 이뤄져야 하기에 관광객으로 하여금 제주올레와 같이 제주도를 구석구석 걸으면서 제주문화를 경험하게 하고 제주도민은 사회적 경제공동체를 통해 자립적이고 지속가능한 사업구조를 만들어나가는 것이 필요하다. #제주미래비전이 제시한 고품격 제주관광 융복합 관광산업의 현실과 개선방안은=관광산업분야의 질적 성장 및 글로벌 경쟁력 확보를 위해 산업간 융·복합을 통한 신산업 발굴 및 부가가치 창출은 매우 중요한 과제다. 관광은 타 분야 산업과 융합으로 산업영역 확장, 새로운 일자리 창출, 지속가능한 성장 등의 선순환구조를 가지고 올 수 있기 때문이다. 하지만 마이스(MICE)산업과 의료관광 분야에서 제주의 현재 경쟁력이 높지 않아 섬이라는 특수성, 청정 자연환경, 국내 최고 휴양지 입지, 다양한 문화관광시설 보유 등의 여건을 활용해 경쟁력을 갖춰야 한다. 이런 측면에서 제주만이 제공할 수 있는 '휴양형 마이스산업', 단순 의료관광을 넘어 신체와 정신건강, 생활을 바꾸는 '웰니스 관광산업', 제주의 청정한 산림, 해양, 문화자원 등을 기반으로 한 다양한 '레저스포츠 관광산업', 1·2·3차 산업의 융복합을 통한 6차산업은 매우 의미가 있다. 이를 위해서는 지역별 특화산업 전략을 수립해 지역중심의 산업과 연계발전해 나갈 수 있도록 하며, 제주의 관광여건에 특화된 융복합 관광산업을 대표 브랜드로 설정하고 이를 위한 관광활성화 기반을 구축해야 한다. #제주지역 관광산업 전문인력 양성의 현실과 과제는=제주관광산업 질적 발전의 가장 큰 기초인 전문인력 문제는 양성의 공급보다 수요 확대에 있다고 본다. 물론 중국관광객 급증에 대응한 중국관광통역사 문제도 있지만  전문인력이 진출할 관광분야가 확대가 시급하다. 1차적으로 지역 민간 업체가 지역출신 인력 고용을 확대해야 하지만 고부가가치 산업 전환을 위해 의욕적이고 창의적인 젊은 인력을 끌어들여야 한다. 물론 담당 공무원의 전문인력화도 중요하다. 또한 도내 전문인력과 외부 전문인력이 경쟁적으로 제주발전을 꾀하면서 부족한 문화예술 전문인력을 양성할 수 있는 가칭 '제주예술종합학교' 설립도 필요하다.#제주를 찾는 중국 방문객이 증가하고 있지만 저가 단체 관광이 주를 이루면서 지역파급 효과 보다 품질 저하 및 관광수지 악화의 문제가 나타나고 있다. 개선책은=원론적으로 보면 제주 미래를 위해 인바운드 관광 생태계 개선이 중요하다. 정확한 진단이 필요하지만  현재 관광상품은 쇼핑에서 손실을 보전하는 구조 특성상 쇼핑 부문서 과도한 인센티브(리베이트)를 주기에 저가과열 양상을 부추기는 면이 없지 않다. 거래구조가 잘못된 부분을 무조건 억제하기보다 시간이 조금 걸려도 업체간 자율규약을 통한 건전 경쟁 유도가 우선돼야 한다. 저가 과열경쟁이 업체 이익 감소는 물론 관광이미지를 훼손시키기에 좋은 관광상품으로 단체관광객을 유치하는 여행사에 인센티브를 제공, 고급형 특화관광상품을 확산시켜야 한다. 일본도 저가시장 근절 노력을 '건전시장 육성'에 두고 정책을 시행하고 있다.#제주도가 동반성장 일환으로 외국관광객 증가로 호황을 누리는 제주지역 대기업 외국인 면세점에 대해 총매출액의 1%를 관광진흥기금으로 부과하는 정책을 추진하고 있다. 어떻게 생각하는지=미국 등 선진국처럼 기업의 지역사회 공헌도 향상은 우리 사회 전반에서 확산돼야할 문화다. 특히 제주는 외래관광객의 소비가 대부분 면세점에서 이뤄지면서 지역상인의 소득에 직접적인 기여가 거의 없다. 물론 면세점측이 지역상생프로그램으로 제주 중소기업 제품 매장을 입주시키고 있지만 아직 제주 상품 경쟁력이 낮은 상황에서 큰 효과를 보기도 어렵다. 따라서 관광진흥개발기금에 일정 비율을 부과하는 것은 의미가 있다. 다만 부과액이 지역특화상품 개발에 기여할 수 있도록 별도의 규정을 만들면 외국인면세점 납부자들의 자부심도 높여 줄 수 있다. #제주도와 제주도의회가 관광객에게 환경부담금을 부과하는 방안을 추진하고 있다. 견해는='입도세' 의미로 여러차례 논의됐지만 제주관광산업의 양적 성장을 위하여 심도있는 논의를 하지 못했다. 그러나 방문객이 계속 증가하는 현실에서 환경보전에 '빨간불'이 켜진 것도 사실이다. 제주는 '청정 자연환경'이 가장 중요한 관광자산이기에 청정 자연환경 보전·관리정책의 일환으로 관광객에게 환경부담금을 부과하는 것은 일면 필요하다. 뿐만 아니라 징수한 환경부담금을 환경보전 관리 목적에 명확히 사용하는 방안도 함께 도출해야 한다. 박훈석·김하나 기자 "제주 야간 관광상품 개발 밤에도 문화시설 열어야" 김향자 위원의 제주현안 해결 제언 			조명·경관시설 구비 선결 과제			먹거리·살거리 등 명소 운영도 제주특별자치도가 야간 관광상품 개발을 추진하는 가운데 김향자 한국문화관광연구원 선임연구위원은 제주시와 서귀포시지역의 야간 조명·경관 구비 및 문화시설 개장 등을 선결 과제로 제안했다.  김 선임연구위원은 "관광전문가를 중심으로 야간관광 필요성이 계속 제시되는 가운데 최근 지자체가 관광 소비 증대 및 지역내 숙박시설 연계를 위한  야간 프로그램 개발에 박차를 가하고 있다"며 "야간 프로그램이 주로 야외에서 이뤄지는 특성상 기후요인을 극복하기 쉽지 않지만 제주시·서귀포시가 밤에도 관광객이 다닐 수 있는 조명과 경관을 먼저 구비해야 한다"고 말했다. 김 선임연구위원은 이어 야간에도 관광객들이 방문할 수 있도록 박물관·미술관·극장 등 문화시설 개장을 제안하는 한편 살거리·먹거리를 제공할 특정지역의 관광명소 지정·운영도 당부했다. 특히 김 선임연구위원은 제주에서만 경험할 수 있는 야간 관광프로그램 개발을 강조한후 "관광지나 도시공간, 또는 문화공간에서 야간 관광프로그램이 운영되면 자연스럽게 관광코스가 만들어지고, 더 나아가 야간 투어버스 운영도 가능하다"고 효과를 분석했다.  김 선임연구위원은 특히 기상여건을 극복할 전천후 야간프로그램에 대해 필요에 따라 개폐가 가능한 전용 공간 확보를 필수 과제로 제시하면서 "제주시 산지천이나 탑동 등을 중심으로 야간 관광명소를 우선 지정·운영한후 점차 다른 지역으로 확산시키는 것이 필요하다"고 말했다. 박훈석 기자 hss9718@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 "강경식 의원, 오라관광단지 근거 없는 의혹 제기 유감" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 "강경식 의원, 오라관광단지 근거 없는 의혹 제기 유감" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 "강경식 의원, 오라관광단지 근거 없는 의혹 제기 유감" 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.10.21 18:17 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도가 21일 강경식 제주도의회 의원의 5분발언에 대해 유감을 표했다.제주도는 이날 오후 별도의 입장자료를 내고 "이미 법과 원칙에 따라 오라관광단지 개발사업 승인 업무를 처리하겠다는 입장을 밝혔음에도 불구하고 강경식 의원이 '부정과 불신의 끝판', '도정의 연루 의혹제기', '관피아 소문' 등 근거 없는 의혹을 제기한데 대해 유감으로 생각한다"고 밝혔다.제주도는 "오라관광단지 개발사업에 공정하고 투명한 법적 절차에 따라 진행 중에 있으며 앞으로도 청정과 공존의 미래비전 원칙에 따라 엄격하게 검토해 나갈 계획"이라며 "강 의원의 도의회 본회의에서의 발언은 사실이 아님을 우선 밝힌다"고 했다.앞서 강 의원은 이날 오후 열린 제346회 제주도의회 임시회 제2차 본회의에서 5분발언을 통해 "오라관광단지가 한라산천연보호구역 완충지대인 중산간에 단지가 들어서게 되면 생태와 경관훼손, 환경파괴와 환경오염은 말할 것도 없고 교통문제, 지하수, 상하수도, 홍수, 쓰레기 과다 발생, 기존의 관광산업과 지역상권에도 큰 영향을 주는 등 제주시 도시계획의 근간을 뒤흔드는, 상상을 초월하는 심각한 문제들이 발생할 수밖에 없다"고 주장했다.특히 이 과정에서 강 의원은 "오죽하면 시민단체들이 성명을 내고 '제주도의 노골적인 오라관광단지 편들기는 원희룡 도정의 부정과 불신의 끝판'이라고 비판했겠나. 개발사업자 뒤에는 이름만 거론하면 알만한 사람들이 월급을 받으며 관피아 노릇을 하고 있다는 소문이 무성한가 하면 원희룡지사 또한 이 사업에 깊이 관여돼 있는 것 아닌가 하는 의혹까지 제기되고 있다"고 지적하며 오라관광단지 쟁점 논란에 대해 해명할 것을 요구했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 의회서 제기된 오라관광단지 '관피아' 의혹..."노골적인 특혜" 제주도, 강경식 의원 '5분발언' 맞불...이례적 해명 촉구 강경식 정면대응 "사실 입각한 의정활동...고발할테면 고발하라" 오라관광단지 논란.의혹...묻지도, 따지지도 말아야 하나 "도의원 겁박 제주도정은 사과하고, 책임자 문책하라" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>관광객 '제주도 高물가' 인식...정말 비싼 것, 맞나? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 관광객 '제주도 高물가' 인식...정말 비싼 것, 맞나? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 관광객 '제주도 高물가' 인식...정말 비싼 것, 맞나? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.10.26 18:10 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × '품질과 물가 차이' 현실적 오인도 한몫 제주를 찾는 관광객들이 제주도의 높은 관광물가에 대한 불만을 제기하고 있는 가운데, 제주도 물가가 비싸다는 인식은 현실적 오인도 한 몫하고 있을 것이란 분석이 제시됐다.한국은행 제주본부가 26일 발표한 '관광물가지수 산출을 통한 제주지역 관광물가 현황 평가' 연구보고서에 따르면 제주 관광물가 상승률은 전국보다 높은 것으로 나타났으나 교통비를 제외할 경우 2010년 이후 전국에 비해 0.1%p 더 오르는데 그쳤다.그럼에도 불구하고 관광객들이 제주물가가 비싸다고 인식하는 것은 일부 품목의 높은 가격과, 체감인식에 비롯되는 경우가 많을 것으로 분석됐다.가격에 대한 오인은 품질의 차이와 물가 차이를 혼돈하는 경우를 말한다.제주에서 주로 판매되는 흑돼지오겹살, 갈치 등은 일반 삼겹살이나 세네갈산 갈치보다 품질이 좋아 여타 지역에서도 비싸게 판매되고 있는데, 제주도 관광을 온 후에는 이를 비싸다고 인식하는 경우가 있다는 것이다.흑돼지의 경우 생육기간이 7개월 이상으로 백돼지보다 약 17%이상 긴 기간 동안 사육하면서, 육지부에서도 흑돼지오겹살 판매가격이 백돼지삼겹살 보다 높다.또 성수기 지출비용 급등 및 바가지요금으로 인한 부정적 이미지도 '고물가' 인식에 영향을 미치는 것으로 나타났다.타 지역의 경우 성수기 가격상승은 숙박비에 한정되나 제주는 항공료, 렌트카 비용, 숙박비가 모두 상승해 여행비용이 급등하는데 따른 것이다. 일부 관광지의 바가지 요금을 제주물가로 인식하는 경우도 다수 발생하는 것으로 분석됐다.일반인들의 경우 물가를 실제 소비액을 기준으로 판단하는 경향이 있어 총 여행비가 많이 드는 제주지역의 물가가 비싸다고 인식하는 것으로 파악됐다.지방물가 및 산지물가에 대한 잘못된 선입관도 작용하고 있다.서울보다는 지방물가가 낮을 것이라는 인식과 지역 특산품은 현지에서 훨씬 쌀 것이라는 기대 또한 제주물가를 높게 인식하게 들고 있다는 것이다.유명음식점의 높은 가격도 고물가로 인식하는 요인이 되고 있는데, 한국은행 제주본부는 관광객들이 몰리는 일부 음식점은 높은 초과수요로 인해 가격이 높게 형성되나 이는 전국 어디에서나 마찬가지라고 설명했다.한국은행 제주본부는 "이처럼 제주 관광객들이 현실과는 달리 제주 관광물가가 높다고 인식할 경우 제주관광의 안정적 성장이 저해될 수 있으므로 이를 해결하기 위한 다양한 노력이 필요하다"고 지적했다.여행을 위해 필요한 총비용이 높을 경우 물가가 높다고 오인할 수 있으므로, 제주여행에서 가장 많은 비용을 차지하고 있는 교통비 절감이 가능할 수 있도록 선박 및 대중교통 활성화를 적극 추진할 것을 제언했다.공인 기관 등의 물가정보 상시접속 체제 구축을 통해 관광객들의 제주 물가에 대한 인식 전환을 유도하는 것도 필요하다고 강조했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 제주지킴이 2016-10-28 03:53:01 | 61.***.***.169 더보기 삭제하기 수정하기 원 기자님 도내에서 돼지고기를 판매하는 식당 100 곳을 조사해 본다면 과연 "흑돼지고기"를 판매하는 식당이 몇 군데나 될까요? 교통비가 물론 여행경비의 많은 부분을 차지하지만, 제주여행은 먹고, 자고, 놀이에 많은 경비가 사용됩니다. 한국은행에서 발표한 보고서를 받아들고 기사를 쓴 것으로 보이니 직접 발로 뛰어 현장에 나가 기사 쓰기를 권합니다. 시인이나 소설가는 엉덩이로 글을 쓰고 기자는 발로 글을 쓴다는 속된 말도 있지요. 하긴 인터넷 신문사의 특성을 이해하는 편이니 이 정도로 마칩니다. 답글쓰기 5 0 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 “오라관광단지 엄격한 법 절차에 의해 처리” 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도 “오라관광단지 엄격한 법 절차에 의해 처리” (제주=뉴스1) 고경호 기자					| 2016-10-19 14:51 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 19일 권영수 제주특별자치도 행정부지사가 제주도청 기자실에서 사상 최대 규모의 투자유치 사업인 제주 오라관광단지 조성사업과 관련한 기자회견을 열고 “이번 사업의 환경영향 평가를 공정하고 엄격한 법 절차에 의해 처리하겠다”고 밝히고 있다. © News1 권영수 제주특별자치도 행정부지사는 19일 사상 최대 규모의 투자유치 사업인 제주 오라관광단지 조성사업과 관련, “이번 사업의 환경영향 평가를 공정하고 엄격한 법 절차에 의해 처리하겠다”고 천명했다. 권 부지사는 이날 제주도청 기자실에서 기자회견을 열고 “오라관광단지 사업은 1990년대 개발지역으로 확정 고시된 지역에서 관련 법령과 절차에 따라 정상적으로 이행해 오고 있고, 앞으로도 공정하고 엄격하게 해나가겠다”며 이같이 밝혔다.권 부지사는 또 “제주의 미래비전인 청정과 공존의 가치 아래 더욱 중립적이고 관련법상 엄격한 잣대와 법상 취지를 통해 환경영향평가심의위원회의 사업 협의 내용을 검토해 나가고, 결과를 제시할 것”이라고 강조했다.이어 “이 같은 법 절차 이행을 통해 제주의 환경가치를 높이고 도민에게 이익이 되는 자연과 함께 번영하는 지속가능한 청정 제주를 위해 최선의 노력을 다하겠다”고 피력했다.한편 오라관광단지 조성사업 지역은 제주시 오라2동 열안지오름 주변 일대이며 1998년도 당시 제1회 세계섬 문화축제장으로 활용했던 곳이다.1997년 2월 제주도종합개발계획상 열안지오름을 포함해 268만3000㎡의 부지가 오라관광지로 확정된 후(사업자 유일개발·쌍용건설·오라공동목장조합) 재해 및 교통, 환경영향평가 등 행정절차를 이행해 1999년 12월30일 제주도개발특별법에 의한 개발사업 시행승인을 받은 바 있다.이어 2015년 5월28일 최종적으로 개발사업 시행승인을 취소하게 됐다가 같은 해 7월 JCC㈜로부터 기존 취소된 사업부지와 동측변 일부 부지를 확장한 356만7000㎡의 면적에 대해 개발사업 시행승인 신청서류가 제출됐다.2015년 12월에는 환경영향평가서 초안이 제출됨에 따라 주민설명회 및 관련부서 협의를 거쳐 올해 1월부터 경관심의위원회, 도시계획심의위원회, 교통·사전재해영향성검토 및 도시건축공동위원회 심의가 완료됐으며 환경영향평가 협의절차를 진행 중에 있다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, “현재 오라관광단지 사업계획에 카지노 없다” &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, “현재 오라관광단지 사업계획에 카지노 없다” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주도, “현재 오라관광단지 사업계획에 카지노 없다” 기자명 김봉현 기자					(mallju30@naver.com) 입력 2016.10.19 15:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 권영수 제주도 행정부지사(오른쪽 두번째)를 비롯한 도 고위관계자들이 19일 도청 기자실에서 오라관광단지개발사업과 관련한 도의 입장을 밝히고 있다. ⓒ제주의소리 제주 오라관광단지개발사업에 들어설 것으로 알려진 ‘외국인 카지노’ 사업에 대해 제주도가 “현재까지 오라관광단지의 공식적인 사업계획에는 카지노가 포함돼 있지 않다”고 선을 그었다. 19일 오후 1시 도청 기자실을 찾은 권영수 제주도 행정부지사를 비롯한 환경·관광분야 고위 공무원들은 최근 각종 밀어주기 논란이 일고 있는 오라관광단지 개발사업과 관련, “법과 원칙에 따라 적법하게 진행되고 있다”고 강조하며 “현재 카지노 사업은 공식 사업계획에 들어있지 않다”고 밝혔다. 이날 기자들과의 일문일답 중 ‘사업자가 카지노 사업계획을 제출했느냐’는 질문에 김정학 도 기조실장 등 도 관계자들은 “카지노는 공식적인 개발사업계획 내용에 접수된 바 없다”며 “개발승인부서에 별도로 카지노를 문의한 적도 없다”고 말했다. 이날 도는 “분명히 밝힐 수 있는 것은 원희룡 지사도 밝혔지만 제주도의 (카지노 인허가)방침은 제도적 정비가 완료된 후 기준에 맞아야만 신규 허가를 하겠다는 입장”이라며 “현재 오라관광단지 사업계획에 카지노는 없다.”고 재차 강조했다. 이어 ‘오라관광단지 내 외국인 카지노가 들어설 것이란 것이 공공연한 사실 아니냐. 도민사회 소모적 논란 방지를 위해서라도 사업자에게 카지노 계획을 정확히 밝히라고 권고할 수 있지 않느냐’는 질문에는 “그런 부분은 행정의 월권이라 생각한다. 사업자가 카지노 생각이 있다면 사업자가 신청하면 그때 기준에 부합여부를 검토할 것”이라고 말했다. 관련기사 20년 전 '세계섬문화축제장'이던 ‘오라 단지’ 어떤 곳? 제주도 “오라관광 ‘밀어주기’ 근거 없는 의혹” 정면 반박 “중국자본? 실체 불투명…묻지마식 밀어주기 특혜 행정” 김봉현 기자 mallju30@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>가을 여행 명소 제주도, 공항근처에서 즐길 수 있는 관광지 및 맛집 추천 &lt; 기사 &lt; Food &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 12:20 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 9 제9회 한국와인대상 품평회 성료, “한국와인, 이제는 세계로 나아갈 때” 10 프리미엄 캔와인 '웨스트와일더', 안정환 &amp; 이혜원 부부와 콜라보한 스페셜 에디션 선보여 더보기 본문영역 이전 기사보기 다음 기사보기 가을 여행 명소 제주도, 공항근처에서 즐길 수 있는 관광지 및 맛집 추천 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Food 기사 기자명 이지선 기자 입력 2016.10.25 15:13 수정 2016.10.29 20:39 가을 여행 명소 제주도, 공항근처에서 즐길 수 있는 관광지 및 맛집 추천 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 가을의 제주도는 여행하기 완벽한 날씨다. 시원한 바람과 에메랄드 빛 바다는 완연한 가을을 느낄 수 있도록 해주며, 햇빛에 비친 바다는 눈이 부시도록 아름답다.제주도에는 제주시를 기점으로 11곳의 해안도로 코스가 조성돼 있는데, 각 코스마다 제주도의 다양한 매력을 느낄 수 있어 여행 목적에 맞게 드라이브를 즐길 수 있는 것이 특징이다.특히 용담이호 해안도로는 제주 공항에서 가깝고 아름다운 해변길을 따라 아기자기한 카페들이 밀집돼 있어 관광객들이 많이 찾는 관광지 중 한 곳으로 꼽히고 있다.용담이호 해안도로를 달리다 보면 용두암에 도달하게 된다. 용두암은 화산용암이 분출되어 형성된 것으로 시원한 바람을 맞으며 바위 위로 부서지는 파도를 감상하는 것이 포인트다. ▲ 용두암은 제주도를 대표하는 명소이니만큼 주변으로 각종 숙박시설과 음식점이 다양하게 형성돼 있다 &lt;사진=제바나횟집&gt;용두암은 제주도를 대표하는 명소이니만큼 주변으로 각종 숙박시설과 음식점이 다양하게 형성돼 있는데, 그 중 ‘제바나횟집’은 용두암 바다를 감상하며 회를 즐길 수 있는 제주공항근처맛집으로 알려져 있다.회 주문 시 새우와 한치회, 자리돔, 문어초회 튀김 등 제철에 맞는 스끼다시가 푸짐하게 제공되며, 정식메뉴(2인 이상 주문 가능)에는 회와 함께 전복해물뚝배기, 고등어구이 등이 나와 관광 후 간단하게 식사를 해결하기에도 좋다.제주공항근처에 위치한 맛집 ‘제바나횟집’은 현재 다금바리도 판매하고 있으며, 다금바리는 전화로 확인 후 예약을 해야 한다.소믈리에타임즈 이지선기자 jslee@sommeliertimes.com 이지선 기자 jslee@sommeliertimes.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 집밥 백선생, 일본식 불고기 ‘스키야키’ 맛있게 즐기는 법! 간장소스, 육수 비법 공개! 삼시세끼, 이서진이 자신 있는 요리 ‘꽁치고추장찌개’와 에릭표 ‘잡채밥’까지 푸짐한 한 상 [세모술] 와인 #13, 베가 시실리아, 알리온(Vega Sicilia, Alion) 제철 맞은 강원도 양양, 푸른 동해바다와 함께 맛집에서 해산물 즐기기 딱 좋아 30초만에 저가와인을 고급와인처럼 만드는 방법! 하이퍼 디캔팅(Hyper-Decanting) 최신뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 현업에서 활동중인 소믈리에들 모습 포토뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 인기뉴스 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 오늘의 추천 [오늘의 추천] 션 태커리 오리온 1997 "와인메이커로서 나의 유일한 목적은 즐거움을 만드는 것" [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" 오스트리아 와인 업계, 2022 빈티지 “수확량은 적지만 훌륭한 품질의 포도 예상” 2022 월드 베스트 바, '바르셀로나 파라디소(Paradiso)' 1위 차지 행사/EVENT 시음회 이탈리안 이노베이션 Italian Innovation 10월 27일 PM 7시 ~ 9시, 에프터 나인 앤 와인 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [금주의 주류 신상] 10월 첫째주 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 론칭 및 프로모션 기사 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 호주 와인 윈즈(Wynns), 페어링을 위한 미디움 바디 와인 4종 국내 론칭 [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 230년 역사의 프랑스 샴페인 명가, '슈를랭(Champagne Cheurlin)' 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, ‘가을 여행주간 맞이’ 환대 캠페인 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, ‘가을 여행주간 맞이’ 환대 캠페인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 제주도관광협회, ‘가을 여행주간 맞이’ 환대 캠페인 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.10.20 17:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회는 10월20일 ‘이 가을 숨겨진 대한민국이 열립니다’라는 주제로 가을 여행주간 맞이 공항이용객 대상 환대 캠페인을 전개했다. ⓒ제주의소리 제주특별자치도관광협회(회장 김영진)는 10월20일 제주국제공항에서 제주 방문객 만족도 제고 및 제주의 가을을 알리기 위해 ‘이 가을 숨겨진 대한민국이 열립니다’라는 주제로 가을 여행주간 맞이 공항이용객 대상 환대 캠페인을 전개했다.가을 여행주간은 10월24일부터 11월6일까지다. 지난 봄 여행주간에 이어 두 번째다.관광협회는 가을 여행주간 캠페인을 통해 관광객 환대 행사와 더불어 도내 참여업체 및 주요관광지를 대상으로 대대적인 수용태세 점검을 통해 관광객의 만족도를 높이고 제주 재방문율을 높여나갈 예정이다.또한, 행사기간 동안 제주도 전 지역 교통요충지 및 인구 밀집지역에 현수막 달기를 병행 추진해 가을 여행주간 분위기를 확산시켜 나갈 계획이다.아울러 관광객들에게 각종 홍보물 배포와 가을여행지 소개, 기념품(감귤 초콜릿) 무료 제공 등을 통해 가을 여행주간 분위기를 고조시켜나가기로 했다.협회 관계자는 “앞으로도 지속적인 수용태세 점검 등을 통해 도민과 관광객이 서로 만족하고 웃을 수 있는 관광문화 조성 및 확산을 위한 캠페인을 지속적으로 추진해 관광객들에게 친절한 제주 이미지를 제고시켜 다시 찾는 제주 만들기에 앞장서 나가겠다”고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>中 카지노 천국 '오라관광지구'…제주도 왜? 노골적인 편들기 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 中 카지노 천국 '오라관광지구'…제주도 왜? "노골적인 편들기" 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 中 카지노 천국 '오라관광지구'…제주도 왜? "노골적인 편들기" 기자정보, 기사등록일 입력 2016-10-17 17:31 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 환경영향평가제도의 원칙과 운영취지 훼손한 심각한 부정행위 사업자 이미 카지노, 게임장 운영계획 갖고 있어 아주경제 진순현 기자= 오라관광단지 개발사업의 환경영향평가 심의가 논란이다. 지난달 조건부동의로 통과된 이 사업에 대해 최근 제주도가 또 다시 환경영향평가 심의위원회를 열어 지난번 결정사항을 번복하면서 파문이 일고 있다. 게다가 조건부 사항을 빼고 ‘원안동의’ 수준으로 바꾼 것. 제주시민사회단체연대회의는 17일 성명을 내고 “제주도가 노골적으로 오라관광단지 편들기에 나서고 있다”며 주장하고 나섰다. 관련기사'성산 일출봉·관덕정 일대' 제주도 토지비축 회의 개최제주시, 여성용 공중화장실 '안심비상벨' 설치 이들은 “제주도와 환경영향평가 심의위원장은 다른 개발사업의 경우도 심의 후 조건부사항에 대해 서면검토를 해왔으나, 이번 오라관광단지의 경우 현안사항이 많아 대면검토를 하게 됐다는 주장을 펴고 있다”고 폄하했다. 이들은 “그렇다면 대면검토를 통해 더욱 꼼꼼하게 조건부 사항의 반영여부를 확인하고 사업자에게 이를 주지시켜야 했다”며 “하지만 결과는 환경단체들이 우려했던 것처럼 오히려 사업자가 반영하기를 꺼려하는 조건부 사항을 권고사항으로 바꿔놓았다”고 따졌다. 그러면서 “특히 이 사항은 반드시 이행해야 하는 ‘의무사항’이 사업자의 판단에 따라 해도 그만, 안해도 그만인 ‘권고사항’으로 변경한 것”이라고 지적했다. 이들은 “더욱 가관인 것은 조건부 사항을 제시한 심의위원의 판단마저 제주도와 심의위원장이 자의적으로 해석해 사업자를 위한 결론으로 몰아갔다”고 목소리를 높였다. 이날 심의위원장은 “지난번 심의회의 때 해당 위원이 재심의 사항을 조건부 사항으로 제시했기 때문에 현재 조건부 사항에서 제외해야 한다”는 입장을 피력했다. 또한 제주도 역시 “해당 위원이 제시한 사항은 사업을 변경해야 하는 내용이고, 환경영향평가심의의 범위를 벗어난 사항”이라고 주장했다. 이들은 “하지만 백번양보해서 이런 주장들이 맞는다면 지난번 회의 때 심의위원장은 해당 위원이 조건부 사항을 제출했을 때 그 자리에서 이 사항을 논의했어야 맞는 것”이라며 “더욱이 해당 위원이 제출한 사항을 조건부 사항이 아니라 재심의 사항이라고 주장하는 근거 역시 논리적으로 설득력이 떨어진다”고 밝혔다. 이들은 “특히 지난 회의 때 심의위원회는 사업자에게 하천 양안으로부터 30m 이격하는 조건부 사항을 내걸었다”며 “이 역시 사업계획을 변경해야 하는 사항으로 제주도와 심의위원장의 주장을 따른다면 이마저도 조건부 사항이 될 수 없다”고 지적했다. 즉 “해당 위원이 제시한 사항을 조건부 사항이 될 수 없다는 주장은 어불성설”이라며 “또한 환경영향평가심의의 범위를 벗어난 사항이라는 제주도의 주장은 사업자를 일방적으로 편들기 위한 억지일 따름”이라고 날을 세웠다. 이들은 “이처럼 원칙과 규정도 어기는 무리수를 써가면서까지 제주도가 이 사업을 보호하려는 의도가 무엇인지 묻지 않을 수 없다”고 따져 물었다. 이들은 “특히 오라관광단지 개발사업은 이미 도민여론에서도 절대 있을 수 없는 제주의 대표적인 난개발사업으로 회자되고 있다”며 “논란이 일었던 몇몇 개발사업에 대해서는 철저한 원칙과 규정을 들이밀었던 원희룡 지사였다. 그런 원지사가 오라관광단지에 대해서는 줄곧 사업을 옹호하는 발언을 이어온 점은 납득하기 어렵다”고 의구심을 나타냈다. 이들에 따르면 오라관광단지 개발사업자인 제이씨씨(주)의 등기사항을 확인한 결과, 사업목적에 부동산 개발업, 부동산 투자자 유치업, 부동산 임대·관리·매매사업, 카지노 운영업, 기타 겜블링 및 베팅업, 유흥주점업 및 무도유흥주점업 등이 포함돼 있다. 이들은 “이 계획은 지금은 토지이용계획에서 제시하고 있지 않지만 오라관광단지 개발을 통해 사업자가 추진하려는 사업들임을 충분히 예측할 수 있고, 제주도가 사업자의 이러한 계획을 정녕 모르고 있을 리도 만무하다”며 “제주도가 여론의 비판에도 불구하고 환경영향평가심의를 다시 개최해 결정사항을 번복한 데에는 사업자와 사업승인기관의 관계를 뛰어넘는 복잡한 관계들이 얽혀있다는 의심을 지울 수가 없다”고 거듭 의혹을 제기했다. 이들은 “행정행위는 그 자체로 공정하고 투명하며 정의로워야 한다. 하지만 이번에 제주도가 보여준 행정행위는 편향적이고 불의로 일관했다. 그 이전의 절차들 역시 마찬가지였다”며 “결국 오라관광단지는 사업자를 위한 행정으로 전락하고 말았다”고 분통을 터트렸다. 이어 이번 제주도의 행위를 규탄하며, 당장 불법적인 회의결과를 무효화 할 것을 강력히 요구했다. 그리고 제주의 정체성은 물론 제주도가 내세운 미래비전과도 배치되는 오라관광단지 개발사업 인허가 절차를 즉각 중단할 것을 함께 촉구하고 나섰다. #오라관광지구 #카지노 #환경 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울제주도민의 날 참가 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 서울제주도민의 날 참가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 서울제주도민의 날 참가 기자명 고병수 기자 입력 2016.10.16 18:42 수정 2016.10.16 19:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주관광홍보관 운영 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회는 16일 서울 잠실종합경기장 보조경기장에서 열린 ‘제25회 서울제주도민의 날’ 행사에 참가해 제주관광홍보관을 운영을 통한 홍보마케팅 활동을 전개했다고 밝혔다.제주관광홍보관은 다양한 제주관광 자원을 소개하고 세계7대자연경관 이미지를 부각시켜 제주에서만 느낄 수 있는 차별화된 제주의 관광자원들을 홍보해 재외도민들의 제주관광에 대한 관심유도와 홍보도우미로서의 역할을 하도록 했다.한편 서울제주특별자치도민회 주최로 개최된 제25회 서울제주도민의 날 행사는 수도권지역 제주도민들의 한마당 잔치로, 전국에서 6천여명의 재외도민들이 참석해 각 시·읍면별 향우회 대항 축구, 계주 등 다양한 프로그램이 펼쳐졌다. 관계자는 “제주도에 대한 재외도민들의 꾸준한 관심유도와 내국인 관광객 유치를 위해 다양한 현장밀착형 마케팅 사업을 지속 추진해 나갈 계획”이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 일본인관광객 유치에 활력 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 일본인관광객 유치에 활력 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 일본인관광객 유치에 활력 지화 승인 2016.10.21 08:32 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 가을을 맞아 일본 지방도시발 전세기의 제주 취항과 함께, 일본 유력 신문사들의 제주 취재가 발을 잇고 있다. 제주특별자치도와 제주관광공사(사장 최갑열)는 10월 20일(목) 오후 1시 30분, 180명의 일본인 관광객을 태운 오키나와 발 전세기가 제주에 도착한다고 밝혔다. 이번 오키나와 전세기는 지난 5월 이후 올해만 두 번째 취항하는 것으로, 지난 6월 도와 공사가 공동으로 실시한 오키나와 현지 세일즈 이후, 오키나와 지역의 수요를 확신한 도내 업체가 적극적으로 가을철 제주관광 상품을 준비하여 이례적으로 가을 취항이 결정되었다. 방문객들은 섭지코지와 산굼부리, 올레 등을 방문하여 제주의 가을을 만끽하는 한편, 승마체험, 동문시장 등 제주의 구석구석을 돌아보고 22일(토) 귀국하게 된다. 도와 공사는 오키나와 전세기 취항을 환영하는 의미로 환영 현수막의 게재 등 환대분위기를 조성, 관광객들의 만족도를 높이고, 지속적인 제주 취항으로 이어질 수 있도록 하였다. 아울러 10월 20일(목)부터 22일(토)까지 오사카 지역의 요미우리·아사히·마이니치 등 유력 언론사들을 대상으로 취재 팸투어를 개최한다. 취재진은 제주올레걷기축제와 거문오름, 신산리마을, 매일올레시장, 이중섭거리, 애월 한담해안도로 등을 취재하면서 무르익어가는 제주의 가을을 일본 현지에 직접 전달하게 된다. 제주관광공사 관계자는 "일본 현지에서 가을철 제주의 올레, 한라산에 대한 관심이 높아지면서 상품개발 문의와 취재 요청이 작년에 비해 늘어나고 있다."며 "일본인관광객 조기 회복을 위해 지속적으로 제주의 신규 콘텐츠를 일본 현지에 제공하여 다양한 제주의 매력이 담긴 상품을 만들고, 홍보하겠다."고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회-시베리아바이칼관광협회 교류 본격 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회-시베리아바이칼관광협회 교류 본격 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회-시베리아바이칼관광협회 교류 본격 제주CBS 김대휘기자 메일보내기 2016-10-12 12:55 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제이트립 전세기 운항 등 업무협약...박정남 총영사에 감사패 제주도관광협회(회장 김영진)가 시베리아 바이칼 관광협회와 우호교류를 추진한다. 제주도관광협회는 11일 러시아 이르쿠츠크주에서 시베리아 바이칼 관광협회(회장 코발렌코 이고르 Kovalenko lgor) 와 '협력 비즈니스 파트너 쉽 구축과 공동 마케팅 추진을 위한 우호교류협약'을 체결했다고 12일 밝혔다. &lt;사진&gt;협약식에는 시베리아 바이칼 관광협회 코발렌코 이고르(Kovalenko lgor)회장 및 임원, 에카테리나 슬리비나 (Ekaterina Slivina) 이르쿠츠크 주 정부 관광청장, 박정남 주이르쿠츠크 대한민국총영사가 참석했다. 이날 우호교류협약 체결식과 함께 제주도내 관광사업체가 참여해 실무 협약도 이뤄졌다. 도내 대형여행사로 출범한 '(주) 제이트립'과 이르쿠츠크 대표 여행업체인 이르쿠츠크 인터내셔날 트래블 '스푸트니크'가 MICE, 의료관광, 국제회의 유치 등 휴양형 고부가가치 관광객 유치 활성화를 위한 공동 전세기 운항 추진 등 업무협약을 체결했다. 한편 주이르쿠츠크 대한민국 총영사와의 간담회 자리에서는 양 지역 관광협회간 협력 비즈니스 네트워크 확대 및 해외 관광시장의 중점 과제인 시장 다변화를 통한 신흥시장 거점 확보를 위해 적극적인 지원을 추진한 박정남 총영사에게 제주도관광협회장의 감사패를 전달했다. 박 총영사는 "전세기 운항 추진을 통해 유라시아 신흥시장 교두보 확대를 위한 양 지역 관광협회와 긴밀한 협조체계를 유지할 수 있도록 적극적인 지원을 아끼지 않겠다"고 밝혔다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 복지장관 340만원, 청년 120만원…연금의 '세대격차' '택시 연 매출, 배달업의 1/3에 불과' 금감원 '수상한 외환거래' 이달 중 검사 마무리 [칼럼]핵위협 공포에 휩싸인 한반도 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 제주CBS 김대휘기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 밀어주기? 조건부 의견→'권고사항' &lt; 환경 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 밀어주기? 조건부 의견→'권고사항' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 환경 제주도, 오라관광단지 밀어주기? 조건부 의견→'권고사항' 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.10.14 16:37 댓글 28 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 환경단체 조건부 의견, '권고' 사항으로 바뀌어...사업자는 '신규부지 숙박시설 제외' 미반영 ▲ 오라관광단지 조성사업 조감도. 제주 최대 개발사업인 오라관광단지 조성사업과 관련, 제주도의 밀어주기 논란이 증폭될 전망이다. 환경영향평가심의위원회에서 나온 환경단체 측 위원들의 조건부 동의 의견이 환경영향평가 심의보완서 검토 심의에서 '권고사항'으로 바뀌었다. 이 때문에 환경단체 소속 심의위원들은 회의의 불공정성 지적과 함께 도가 사업자에게 노골적인 특혜를 주고 있다며 회의 자체를 불참하는 입장을 밝혔고, 오라동 일부 주민들은 이같은 환경단체 입장에 반발했다.제주도는 14일 오후 1시 도청 4층 탐라홀에서 '제주오라관광단지 조성사업 환경영향평가 심의보완서 검토'를 위한 환경영향평가심의위원회를 소집했다.이날 회의는 시작부터 파행을 빚었다. 환경단체 소속 심의위원들이 불참을 선언한 것.이영웅 제주환경운동연합 사무처장과 김정순 곶자왈사람들 사무처장, 김미정 제주참여환경연대 전 사무국장은 회의장 앞에서 '불참' 입장을 발표했다.이들은 "조건부 사항에 대해 별도의 대면 회의를 개최하자고 합의가 된 후에 해야 하는데 다수 위원들이 일축하면서 조건부 통과됐었다"며 "오라단지 사업자가 심의보완서를 제주도에 제출하면서 조건부 동의 내용 40%를 반영하지 않았다. 이번 회의는 사업자를 봐주려고 하는 것"이라고 비판했다.이들은 "심의보완서 검토 회의는 유례도 없고, 근거도 없는 것으로 회의에 참가하는 것 자체가 사업자에 특혜를 주는 것이어서 불참하게 됐다"고 설명했다. 이들은 "제주 최대 개발사업으로 환경영향평가심의위가 좀 더 신중하게 심의해야 하는데 제주도가 앞장서서 지하수나 하수, 환경총량에 대해 문제가 없다고 하면서 조건부 통과시키는 데 일조했다"며 "그런데 조건부 내용조차 제대로 이행하지 않는 사업자를 위해 또 회의를 여는 건 앞뒤가 맞지 않다"고 주장했다. ▲ 환경단체 소속 심의위원(김정순-이영웅-김미정)들이 회의 불참에 대한 입장을 발표하고 있다. 환경단체의 기자회견에 맞서 오라동 일부 주민들은 "사업을 하지 말라는 것이냐"고 항의하며 한바탕 소동이 벌어지기도 했다.결국 환경단체 위원들의 퇴장 속에 환경영향평가심의위원회는 1시간여 회의를 마치고, 조건부 동의 내용을 제대로 반영하지 않은 사업자의 심의보완서를 통과시켰다.지난 9월21일 조건부 동의 내용에는 총 49건이 있었다. 하지만 제주도는 환경단체가 제시한 7건의 조건을 '권고사항'으로 바꿔놓았다.재심의를 주장한 환경단체 심의위원들의 의견을 '조건부 의견'이 아닌 것으로, 제주도가 아예 배제시킨 것이다. 제주도는 통상적으로 각종 위원회 결과를 일주일 이내에 공고하지만, 오라단지의 경우 25일째 조건부 동의 내용을 공개하지 않고 있다.회의가 끝나 후 가진 브리핑에서 환경단체 소속 심의위원들이 조건부 의견을 왜 권고사항으로 변경했느냐는 질문에 대해 제주도 관계자는 "환경영향평가심의위원회가 결정한 사항에 대해 제주도가 결정할 수 있다"며 환경영향평가심의위를 무력화시키는 듯한 발언도 했다.더욱 큰 문제는 오라단지 사업자인 JCC가 환경단체 심의위원이 제기한 것이 아닌,  '신규 추가부지 내 콘도시설을 제척해야 된다'는 조건부 의견까지 반영하지 않았다는 점이다. ▲ 제주도 환경영향평가심의위원회가 14일 오후 1시 도청 4층 회의실에서 오라관광단지 환경영향평가 심의보완서 검토를 위한 회의를 개최했다. 사업자는 "추가 부지는 배치상 마이스센터를 중심축으로 각 시설들이 원활하게 연결되는 동선계획을 통해 휴양문화시설 중심의 테마파크와 휴양콘도로 돼 있다"며 "전체 대지 내 휴양콘도 비율은 13.1%로 반영할 수 없다"고 밝혔다.환경영향평가심의위원회는 사업자가 조건을 제대로 이행하지 않았음에도 심의보완서를 그대로 받아들였다. 제주도가 대놓고 오라관광단지 조성사업을 밀어주는 게 아니냐는 의혹이 나오는 이유다.원희룡 지사는 오라단지 사업에 대해 "이미 사업을 추진한 지 오래된 곳으로 일차적으로 2년 전에 제시했던 '산록도로-평화로 위 한라산 방면 개발가이드라인'에 저촉되지 않는다"며 "개발가이드라인 바로 밑에 있지만, 지대가 높다는 이유로 개발을 일절 못하게 한다는 것은 지나치게 과도한 것이라고 볼 수 있다"고 옹호한 바 있다.오라관광단지는 지난 2월 경관심의, 6월 교통영향평가, 7월15일 도시·건축공동위원회에 이어 이날 환경영향평가까지 속전속결로 통과했다.논란이 있는 대부분의 개발사업이 한 두 차례 제동이 걸리는 데 반해 오라관광단지는 한번도 재심의 절차를 밟지 않았다. 제주도는 심의보완서가 환경영향평가심의위를 통과함에 따라 조만간 제주도의회 동의절차를 밟을 예정이다. 한편 오라관광단지 조성사업은 중국자본이 주도하는 JCC(주)가 제주시 오라2동 일대 357만5753㎡ 부지에 2021년 12월까지 사업비 6조2800억원을 투자하는 프로젝트로, 사업 면적과 투자금액 모두 제주 최대 사업이라고 할 수 있다. 7650석 규모의 초대형 MICE 컨벤션, 5성급 호텔 2500실과 분양형 콘도 1815실 등 숙박시설만 4300실이 넘는다. 상업시설용지에 면세백화점과 명품빌리지, 글로벌 백화점, 실내형 테마파크를 설치하고, 휴양문화시설용지에 워터파크, 체육시설에 18홀 골프장이 각각 들어선다. '카지노'는 명시하지 않았지만 '복합리조트'를 준비중인 만큼 사업자측은 사실상 카지노 도입을 기정사실화하고 있다고 볼 수 있다. 관련기사 속전속결 제주 오라단지, 환경국장도 찬성...8대 4로 환경평가 통과 "청정-공존 도정철학 붕괴, 원희룡 난개발시대 복귀 선언" 느닷없는 제주오라관광단지 환경영향평가회의 왜? "결정 번복까지 왜?" 제주 시민사회 "원희룡-오라단지 거래 의혹" 제주도 “오라관광 ‘밀어주기’ 근거 없는 의혹” 정면 반박 “중국자본? 실체 불투명…묻지마식 밀어주기 특혜 행정” 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>檢, '식당 여주인 집단 폭행' 중국인 제주도 관광객 7명 기소 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회일반 urlhttps://www.sedaily.com/NewsView/1L2KBXUU4K 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회일반 檢, '식당 여주인 집단 폭행' 중국인 제주도 관광객 7명 기소 입력2016-10-04 16:13:11 수정 2016.10.04 16:13:11 김영준 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 viewer 지난달 9일 음식값 지불을 요구하는 식당 주인을 집단 폭행한 중국인 7명이 재판에 넘겨졌다. /연합뉴스지난달 9일 음식값 지불을 요구하는 식당 주인을 집단 폭행한 중국인 7명이 재판에 회부됐다. 4일 제주지검은 제주도 연동의 한 중국 요리 식당에서 업주 안모(53, 여) 씨를 때려 뇌출혈 등의 상해를 입힌 중국인 관광객 천모(37) 씨 등 5명을 특수상해 및 공동폭행 혐의로 구속 기소하고 2명을 같은 혐의로 불구속 기소했다고 밝혔다.이들은 폭행을 말리는 손님 정모(28) 씨 등 3명을 폭행해 안와골절을 입힌 혐의도 받고 있다.이들은 음식점에서 음식을 주문하고 외부에서 사온 술을 마시려다 제지당하자 음식점을 나와버렸고, 여주인이 쫓아와 음식값을 계산하라고 하자 폭행한 것으로 조사됐다. 애초 중국인 8명이 폭행 혐의로 입건됐으나 그 중 1명은 범행 현장에 없었던 것으로 드러나 기소 대상에서 제외됐다고 검찰은 밝혔다.한편 폭행 피해를 입은 안 씨는 한국 국적을 취득한 중국동포로 알려졌다. /김영준인턴기자 gogundam@sedaily.com &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 나경원 "국민의힘 지지층 7주 연속 1등은 나" #국감 초점 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 이시간 주요 뉴스 영상 뉴스 '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? "인도네시아 축구장 난동으로 최소 129명 사망"…무슨일 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 저가 매수 나선 개미들…삼성전자·NAVER 줍줍 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 인더뷰 대리·과장부터 임원까지 '3조' 채용 시장 노리는 리멤버[인더뷰] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 우수관광사업체 지정 공모...선정방법은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 하반기 우수관광사업체 지정 공모...선정방법은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 하반기 우수관광사업체 지정 공모...선정방법은? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.10.17 16:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선을 도모하기 위해 오는 24일부터 11월18일까지 우수관광사업체 지정 공모를 진행한다고 17일 밝혔다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주특별자치도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야 업체다.이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수 관광사업체 평정위원회의 심의를 거쳐 최종 선정된다.지정 기간은 2년이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 따라 종합적으로 평가하게 된다.종합점수가 기준 점수(90점) 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급된다. 또 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>경인일보 : 제주도서 식당 여주인 집단 폭행한 중국인 관광객 7명 기소 경인일보 제보안내 경인일보는 독자 여러분의 소중한 제보를 기다립니다. 제보자 신분은 경인일보 보도 준칙에 의해 철저히 보호되며, 제공하신 개인정보는 취재를 위해서만 사용됩니다. 제보 방법은 홈페이지 외에도 이메일 및 카카오톡을 통해 제보할 수 있습니다. - 이메일 문의 : jebo@kyeongin.com - 카카오톡 ID : @경인일보 개인정보의 수집 및 이용에 대한 안내 수집항목 : 회사명, 이름, 전화번호, 이메일 수집목적 : 본인확인, 접수 및 결과 회신 이용기간 : 원칙적으로 개인정보 수집 및 이용목적이 달성된 후에 해당정보를 지체없이 파기합니다. 개인정보 수집 및 이용에 동의합니다. 기사제보 개인정보 보호를 위해 익명 제보가 가능합니다. 단, 추가 취재가 필요한 제보자는 연락처를 정확히 입력해주시기 바랍니다. *최대 용량 10MB 제보하기 전체메뉴 검색 오피니언 인천 지역 정치 경제 사회 문화 스포츠 로그인 회원가입 뉴스홈 전체기사 정치 경제 사회 문화 스포츠 사람들 기획(경기) 기획(인천) 특집 오피니언 오피니언 홈 사설 참성단 윤인수칼럼 경인칼럼 기명칼럼 데스크칼럼 월요논단 수요광장 경제전망대 춘추 칼럼 전문가칼럼 오늘의 창 노트북 기고 인천 인천 홈 정치 경제 사회 문화생활 지역 남부권 중부권 서부권 동부권 북부권 K스토리 K스토리 이슈&amp;스토리 영상·포토 리얼영상 포토 비주얼 통 큰 시리즈 경인 WIDE 경인 In-Depth 지면보기 구독신청 기사제보 검색 닫기 추천 키워드 전국체전 SSG 랜더스 도서관의 미래 경기도 쌀 수매 코로나 그늘 무형문화재 인천고등법원 경기도 버스 준공영제 제물포 르네상스 지역화폐 예산 1기 신도시 인천e음 캐시백 내가 추천 인천책 경인 WIDE Editor's PICK 장비 고치는데만 일주일… 장애인은 '강제 외출금지' "서서 못가" 아닌 "아예 못가" 인천 남동구민 극한 출근 [경기도 근대문화유산 탐방] 이천 수광리 오름가마 사회 검찰·경찰·법원 제주도서 식당 여주인 집단 폭행한 중국인 관광객 7명 기소 입력 2016-10-04 14:33:24 가 가 공유하기 페이스북 카카오톡 네이버 밴드 트위터 url 복사 양형종기자 yanghj@kyeongin.com 양형종기자 기사모음 제주도 집단폭행 중국인 관광객 기소. /연합뉴스제주도에서 50대 식당 여주인을 집단으로 폭행한 중국인 관광객(유커) 7명이 재판에 넘겨졌다.제주지검은 음식점 여주인을 집단 폭행한 혐의(특수상해·공동폭행 등)로 중국인 관광객 천 모(37)씨 등 5명을 구속기소 하고 2명을 불구속 상태로 기소했다고 4일 밝혔다.이들은 지난달 9일 오후 10시 25분께 제주시 연동의 한 중국 요리 식당에서 업주 안 모(53·여)씨를 때려 뇌출혈 등의 상처를 입힌 혐의를 받고 있다.또한 싸움을 말리는 손님 정 모씨 등 3명을 발로 차고 주먹으로 때려 눈 주위의 뼈가 부러지는 완와골절 등 상해를 가한 혐의도 있다.이들은 당시 음식점에서 음식을 시켜놓고 외부에서 사온 술을 마시려다 제지당하자 밖으로 나가버렸다. 이어 음식값을 내라는 여주인의 말에 화가 나 폭력을 행사한 것으로 조사됐다.검찰은 애초 중국인 8명이 입건됐으나 1명은 범행 현장에 없었던 것으로 확인돼 기소 대상에서 제외했다./양형종 기자 yanghj@kyeongin.com &lt;저작권자 ⓒ 경인일보 (www.kyeongin.com), 무단전재 및 수집, 재배포 금지&gt; 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘의 경인일보 TODAY PICK 신기술인가 신기루인가 지난 대선 당시 후보들이 직접 플랫폼을 사용하며 열풍을 일으킨 '메타버스(Metaverse)'가 신기루처럼 대중들의 눈앞에서 사라졌다. 관련 기술의 발전과 코로나19 팬데믹이 겹치면서, 가상세계를 통해 현실세계와 같은 사회·경제·문화 활동이 이뤄질 것이란 기대가 컸다. 그러나 선거가 끝나자마자 정치인들도 메타버스 플랫폼에서 자취를 감췄고, 대중들 역시 코로나 엔데믹 여파로 이에 대한 관심을 접어두고 있다. 그 사이 성착취 등 부작용은 늘고 있는데 정작 이를 예방할 수 있는 법적 장치 마련에는 정치권이 소홀한 모습이다. 대선·지선주자들, 너도나도 활용가상인물·공간… 이색유세 펼쳐 메타버스가 가장 주목받은 시기는 올해 가장 큰 정치이벤트였던 '20대 대통령선거'와 '8회 전국동시지방선거' 때다. 대선에 앞서 정치권에서는 지난해 8월부터 당내 경선이 순차적으로 시작됐고 이 과정에서 정당들은 메타버스를 활용해 유권자와 실시간 정책 소통, 공약 홍보, 선거운동 등을 했다. 메타버스를.. 김동연의 100일공직사회 잘 알기에… 관성 깨는 도정철학 공공의료 공백 인천의료원, 7개 과목 '휴진'… 시민 헛걸음, 전국서 버금간다 국회 국감 화두 경기도내 RPC, 전국 최악 적자… 국감선 '지역농협 지원' 목소리 공정위 표준약관 구멍 허술한 공정거래위원회 '셀프빨래방 표준약관' 두 번 우는 점주들 오늘의 사건사고 부부 싸움하다 불 지르려 휘발유 뿌린 남성 붙잡혀… 경찰 구속영장 신청 배재흥 기자 부천서 80대 아버지 흉기로 찌른 아들 붙잡혀… '가정불화 추정' 이상훈 기자 부천 호프집서도 '먹튀'에 직원 성희롱까지… 주민들 공분 이상훈 기자 경인 WIDE 구단 매각 언급에 축구팬 반발 돈줄 막힐땐 걷어차고, 비리 엮일땐 팽개치고… 시민축구단 현실 K4리그에서 활약하던 인천남동구민축구단은 올해 갑작스럽게 해체 결정을 내렸다. 해체 이유는 재정적인 어려움이었다. 2020년 K4리그 출범 때부터 리그에 참가했던 인천남동구민축구단은 남동구청의 보조금을 토대로 인천 지역 유일의 K4리그 팀으로 활약해 왔지만, 올해 남동구의 지원이 끊기자 선수들과 직원들의 임금을 주지 못하는 사태에까지 이르렀다.인천남동구민축구단 지원 조례의 유효기간을 연장하는 내용이 담긴 조례안이 상정됐지만, 네 번이나 부결되면서 남동구의회를 통과하지 못했다. 재정난 닥친 인천남동구민축구단선수 급여 지급 어렵.. 정책따라 흔들리는 지역화폐 지역화폐 동력 '인센티브'… 예산 쥔 정부만 바라본다 정부가 내년도 지역화폐 관련 예산을 전액 삭감하면서 경기지역화폐가 또 한 번 위기를 맞았다. 골목상권 보호 등을 통한 지역경제 활성화라는 공공성을 가졌지만, 예산 등 정책이 바뀔 때마다 지역화폐가 화두에 오르는 일이 반복되는 것이다.특히 국비 지원 중단은 인센티브(캐시백·할인율 등) 지급 등 지역화폐 경쟁력을 흔드는데, 지역화폐 시행 3년이 지나도록 이 같은 악순환이 계속되고 있다. 이 때문에 지역화폐의 지속가능성, 안정성을 확보하기 위한 대책 마련이 필요하다는 목소리가 나온다. 용인시민 A(33)씨는 지역화폐 '와이페이'.. 지역 시민단체 위기 각자도생의 시대, 휘청이는 시민사회 시민단체의 사회적 영향력·신뢰도는 예전 같지 않다. 특히 지역시민단체는 중앙보다 재정력이 약해 활동이 위축되고 시민들은 가입하지 않는 '악순환'이 반복된다.그럼에도 전문가와 시민단체 관계자들은 여전히 시민단체가 존재해야 한다고 말한다. 소외될 수 있는 지역주민의 목소리를 대변하고 권한이 강해진 지자체를 견제하기 위해 지역시민단체가 필요하다는 것이다.수원이주민센터, 회원 75% 줄어무관심 → 재정악화 → 활동위축이주민 인권증진·지원활동을 해온 시민단체 '수원이주민센터'의 회원은 4년 사이 400명에서 100명으로 줄었다. 회비,.. 신문사소개| 윤리강령| 고충처리| 기사제보| 구독신청| 개인정보 처리방침| 청소년 보호정책| 디지털뉴스 이용 규칙| 그룹웨어| 사이트맵 본사 :&amp;nbsp(16488) 경기도 수원시 팔달구 효원로 299 경인일보사빌딩  |  TEL :  031-231-5114   |   FAX : 031-232-1231/0339  |  구독신청 1588-3001 인천본사 :  (21556) 인천광역시 남동구 남동대로 773 3층   |   TEL : 032-861-3200   |   FAX : 032-861-3206/3209 인터넷신문등록번호 : 경기 아51587   |   등록일자 : 2017.07.17   |   ISSN 2635-9596   | 발행인/편집인 : 배상록 경인일보의 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. Copyright (c) by 경인일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 성산 관광 후 맛보는 이색 해물 맛집 &lt; 맛·멋 &lt; 라이프 &lt; 기사본문 - 중부매일 - 충청권 대표 뉴스 플랫폼 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 실시간속보 멍석 김문태의 동심화 - 춤 KT&amp;G-미래에셋, '신성장투자조합1호' 결성 최원철 공주시장, 출범 100일 '강한 공주' 토대 마련 청주문화원 '공연과 이야기가 있는 역사토크콘서트' 공주시, '도서관 책 축제' 15일 개최 '뮤지컬 잘잘잘' 11월 30일까지 5회 공연 홍성군, 신청사 건립 순항 공주정보고, '전국청소년 배구대회' 우승 세종시교육청 "올바른 성교육으로 디지털 성폭력 예방" 시와 음악의 만남, '꿈꾸는 달님' 가을 음악회 청양그루경영체연합 '청양지역 산촌 투어' 행사 충남도립대, '충남우수기업 분석 경진대회 5년 연속' 수상 로그인 회원가입 모바일웹 UPDATED. 2022-10-11 12:18 (화) 전체 뉴스 정치 경제 사회 교육 스포츠 연예 지역 충북 세종 대전·충남 생활문화 문화일반 공연·전시 문학·출판 종교 학술·문화재 언론 건강·의료 여행·레저 맛·멋 오피니언 사설 내부칼럼 외부칼럼 시민기자 중부매일 TV 기획·특집 연재 르포 심층·밀착 인터뷰 포럼·토론회 + 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 성산 관광 후 맛보는 이색 해물 맛집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 맛·멋 제주도 성산 관광 후 맛보는 이색 해물 맛집 기자명 디지털미디어부 입력 2016.10.10 11:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 카카오톡(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 카카오톡(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘신산포구자연산횟집’의 해물함박스테이크 [중부매일 디지털미디어부] 제주도는 일년 내내 여행객에게 인기가 좋은 여행지로 이곳을 찾는 국내외 관광객 수는 매년 큰 폭으로 증가하고 있다. 제주도관광협회에 따르면 올해 제주도 방문 관광객 수는 500만 명을 넘어섰다. 이번 500만명 돌파는 지난해보다 14일 빨랐으며, 특히 내국인 관광객의 경우 지난해 동기간 대비 14.8%나 증가한 것으로 나타났다. 제주도를 대표하는 관광지 중에서도 ‘성산일출봉’은 한라산의 360여 개 기생 화산 중 유일하게 해저에서 솟아오른 봉우리로 빼어난 경관을 선보이는 명소다. 이곳에서 감상하는 일출은 국내 대표 일출장관 중 하나로 손꼽히고 있으며, 성산일출봉과 바다의 조화가 만들어내는 경치는 탄성을 자아낸다. 이렇듯 아름다운 자연경관으로 제주도 단일 여행지 중 가장 많은 방문객을 자랑하는 성산일출봉은 ‘올인’의 촬영지로 잘 알려진 ‘섭지코지’와 가까이 위치하고 있다. 섭지코지는 성산일출봉과 함께 제주도에 오면 꼭 들려야 하는 명소로 알려져 있는데, 이곳의 감상포인트는 등대에 서서 푸른 바다와 해안 절경을 내려다 보는 것이다. 제주도에 왔다면 지역 먹거리를 맛보는 일을 빼놓을 수 없다. 성산일출봉에서 섭지코지로 가는 길목에는 ‘신산포구자연산횟집’라는 섭지코지 맛집이 위치하고 있는데, 이곳은 바로 앞에 바다가 펼쳐진 성산 맛집으로 유명하다. 주메뉴로는 해물함박스테이크, 한치해물라면, 해물모듬전복밥을 선보이고 있다. ‘신산포구자연산횟집’에서만 맛볼 수 있는 해물함박스테이크는 전복내장과 제주산돼지, 소고기를 갈아 만든 스테이크에 전복, 소라, 홍합, 딱새우, 알새우, 조개, 한치 등을 함께 곁들어낸 별미메뉴이다. 한치해물라면은 푸짐한 해산물이 들어가 있어 깊은 맛이 일품이며, 해물모듬게우밥은 전복 내장 볶은밥에 활전복, 활소라, 멍게, 한치 등을 곁들여 초고추장에 비벼먹을 수 있다. /디지털미디어부 키워드 #성산 맛집 #섭지코지 맛집 #제주도 #해물 #중부매일 디지털미디어부 newmedia@jbnews.com 다른기사 보기 저작권자 © 중부매일 - 충청권 대표 뉴스 플랫폼 무단전재 및 재배포 금지 당신만 안 본 뉴스 미래나노텍, 자사주 처분에도 주가 '훈풍' 60이 되고 보니 단양 패러글라이딩 초보 조종사 악천후 속 비행 강행 도로로 '뚝' 청주시 주요 보직, 청원군 출신 싹쓸이(?)… 9개 중 8개 독식 오창 에코프로비엠, 에코프로글로벌 주식 800만주 800억에 취득 '74주년 국군의날' 박성제 육군 제37보병사단장 올해 단양군 패러글라이딩 8번째 추락사고 미래나노텍, 자사주 처분에도 주가 '훈풍' 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 멍석 김문태의 동심화 - 춤 KT&amp;G-미래에셋, '신성장투자조합1호' 결성 최원철 공주시장, 출범 100일 '강한 공주' 토대 마련 청주문화원 '공연과 이야기가 있는 역사토크콘서트' 공주시, '도서관 책 축제' 15일 개최 '뮤지컬 잘잘잘' 11월 30일까지 5회 공연 기획시리즈 충청권메가시티플랫폼 대청호의 눈물 충북의 근대 교육유산을 찾아서 청년창업 CEO를 만나다 미래 유망기업에 가다 독립서점은 살아있다 숨은 알짜 중소기업을 찾아서 도란도란 우리마을 이야기 우리 학교 최고 - 칼럼 - 편집국장 칼럼 김동우 칼럼 한기현 칼럼 데스크칼럼 경제칼럼 법조칼럼 문화칼럼 기자수첩 메아리 중부시론 세상의눈 열린세상 아침뜨락 교단에서 문화 한 잔 김홍철의 건축이야기 허건식의 무예 이야기 :: 지난 기획 &amp; 시리즈 기사 :: 2021 연중기획 균형발전 중심 충청플랫폼 2020년 연중기획 지역과 통하다 아침을 여는 사람들 성공스토리 도전하는 사장님 힘내라소상공인 2019년 연중기획 청년이 미래다 정치인안녕하십니까 학교는 신나는 놀이터 충북의 최고 가게 이야기가 있는 충북 100경 핫클릭 오늘 주간 1 한국전기공사협회 '오송 시대' 연내 개막 2 쌀쌀한 날씨 속 핑크뮬리밭 찾은 시민들 3 청주 낭성면서 어른 엄지손톱만한 우박 쏟아져 4 한글날 연휴 마지막 날… 핑크뮬리 배경으로 찰칵 5 "3년만에 열렸다"…'세종축제' 인산인해 6 젊은 베테랑 경찰관을 만나다 - 이재석 충북경찰청 마약범죄수사대 팀장 7 퇴거불응 청주병원 민낯 - 中. 정관 변경 미이행 8 세종시, 지방소멸 위기 막을 컨트롤타워 되나 9 여당 몫 국회 부의장에 '정우택' 부상 10 충주상고, 국가직 9급 공무원 필기시험 6명 전원 합격 1 단양 패러글라이딩 초보 조종사 악천후 속 비행 강행 도로로 '뚝' 2 청주 추정리, 메밀꽃 만개 3 충북도교육청 A비서관 대표인 M사를 가보니… 4 제40회 금산인삼축제, 블랙이글스 에어쇼·대형 콘서트 등 준비 5 프랜차이즈 아닌 동네빵집 유치 나선 대형마트… 왜? 6 전국 최초 환지 방식, 천안 수신산단 조성 사업 본격 추진 7 퇴거불응 청주병원 민낯 - 上. 장례식장 연면적 법정 허용치 초과 8 충북교육청 A비서관 겸직·이해충돌 논란 9 충북 2차전지株 주가 날았다 10 한국전기공사협회 '오송 시대' 연내 개막 중부매일 하단영역 하단메뉴 매체소개 기사제보 구독신청 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 충북 청주시 흥덕구 1순환로 436번길 22 대표전화 : 043-275-3011 팩스 : 043-275-3013 법인명 : ㈜중부매일신문 제호 : 중부매일 - 충청권 대표 뉴스 플랫폼 등록번호 : 충북 가 00002 등록일 : 1990-01-15 발행일 : 1990-01-15 발행인 : 한인섭 편집인 : 이민우 청소년보호책임자 : 김지훈 Copyright © 2022 중부매일 - 충청권 대표 뉴스 플랫폼. All rights reserved. mail to newmedia@jbnews.com 위로 전체메뉴 전체기사 정치 전체 대통령실·국방·외교 의회·정당 행정·자치 정치일반 경제 전체 일반·산업 금융·증권 기업·벤처 건설·부동산 생활경제 IT 과학 사회 전체 일반 사건·사고 교육 법원·검찰 NGO·NPO 환경 인권·복지 인물 문화 전체 일반·문화 공연·전시 문학·출판 종교 학술·문화재 언론 오피니언 전체 사설 내부칼럼 외부칼럼 포토 전체 포토뉴스 스포츠·연예 전체 스포츠 연예 라이프 전체 건강·의료 여행·레저 맛·멋 시민기자 임시 영상 지역 전체 충북 세종 대전·충남 기획·특집 전체 연재 르포 심층·밀착 인터뷰 포럼·토론회 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-러시아 시베리아 관광협회간 우호교류 협약 체결 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도-러시아 시베리아 관광협회간 우호교류 협약 체결 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도-러시아 시베리아 관광협회간 우호교류 협약 체결 이승현 기자 승인 2016.10.12 15:48 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도관광협회·시베리아 바이칼 관광협회와 협력…비즈니스 마케팅 우호교류 협약 [제주일보=이승현 기자]제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 11일 러시아 관광시장 확대를 위해 러시아 이르쿠츠크주에서 시베리아 바이칼 관광협회(회장 코발렌코 이고르·Kovalenko lgor)와 ‘협력 비즈니스 파트너 쉽 구축과 공동 마케팅 추진을 위한 우호교류 협약’을 체결했다.이번 협약식에는 김영진 제주도관광협회 회장과 코발렌코 이고르 시베리아 바이칼 관광협회 회장, 에카테리나 슬리비나 이르쿠츠크주 정부 관광청장, 박정남 주이르쿠츠크 대한민국총영사 등이 참석해 양 지역 관광협회간의 적극적인 조력과 지원을 약속했다. 이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, CCTV 확충 등 도민·관광객 안전확보 인프라 ↑↑ - CCTV뉴스 - 이광재 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend 스토리지 안전산업특집 OT보안특집 UPDATE : 2022-10-07 18:00 (금) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 OT보안 안전산업 News Focus On People Inside Product Zoom In D-Trend 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도, CCTV 확충 등 도민·관광객 안전확보 인프라 ↑↑ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME News 공공·정책 제주도, CCTV 확충 등 도민·관광객 안전확보 인프라 ↑↑ 이광재 기자 승인 2016.10.03 10:47 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도가 주택가 등 범죄 취약 지역에 CCTV를 늘리는 등 외국인 밀집지역에 관광경찰 집중 배치 및 순찰 강화로 범죄를 사전에 예방하고 관광치안센터 시범 운영, 이동형 관광치안버스 운영을 통해 치안공백 제로화에 나선다.제주도청제주도청은 인구 및 관광객 증가로 인해 치안수요가 급증하고 최근 중국인 관광객에 의한 잇단 강력 범죄로 도내 안전 관리에 비상이 걸린 가운데 도민안전 확보를 위한 관계기관 종합대책 회의를 개최했다.특히 올해 제주지방경찰청 통계자료에 따르면 지난 8월까지 외국인 범죄는 총 397건으로 전년 동기간과 비교해 54.4%가 증가한 것으로 나타남에 따라 이 회의를 통해 관계 기관별 공동 대응과 협력을 논의하고 도내에서 발생하는 범죄 행위에 대해 즉각 대처하는 한편 중단기 제도개선 과제 등을 망라한 종합 대책을 수립했다.이번 긴급회의에서 제주특별자치도와 제주지방검찰청, 제주지방경찰청, 제주출입국관리사무소는 도내 안전시설 인프라 조기 확충 및 도민 생활안전 확보 대책을 기관별로 발표하고 공동 협력 사항에 대해 논의했다.우선 제주특별자치도는 외국인 밀집지역에 관광경찰 집중 배치 및 순찰 강화로 범죄를 사전에 예방하고 관광치안센터 시범 운영, 이동형 관광치안버스 운영을 통해 치안공백 제로화에 나선다.강력 단속활동과 함께 방법용 CCTV 확대 설치로 도민 불안감을 해소하고 주요 CCTV에 대한 24시간 실시간 모니터링 체계 구축으로 범죄 발생시 신속한 대응태세를 마련한다.또 외국인 입국이 자유로운 싱가포르, 홍콩 등의 사례를 분석해 노비자 입국 요건, 입국 심사절차·신상정보 획득 등 제도개선 사항을 발굴해 정책에 반영할 예정이다.이와 함께 도민안전문화 정착을 위해 자치경찰과 국가 경찰간 협조체계를 구축하며 도 관광협회, 도내 대학, 다문화가족센터 등과도 연계해 나간다는 계획이다.제주지방검찰청은 중요 외국인 범죄 사건에 대해 출입국 및 외사 전담 검사를 추가로 지정하고 부장검사 주임검사제를 적극 활용해 사건의 경중과 수사 및 처벌 필요 사안을 대응할 계획이며 출국정지 기준을 마련해 적극적인 수사가 진행될 수 있도록 한다.또 상대적으로 피해자의 피해 회복이 어려웠던 외국인 범죄에 대해 엄정한 처벌과 함께 적극적인 피해자 지원을 강화한다.제주지방경찰청은 범죄 취약지역 특성에 따라 합동 집중 순찰로 범죄의지를 사전에 차단하고 외국인의 범법행위에 대해 무관용 원칙으로 엄정 대응할 계획이며 유관기관과의 협력 강화를 통해 수사 및 범죄 피해자 보호방안을 마련한다.앞으로 외국인관련 범죄 신고는 범죄유형에 관계없이 긴급신고인 ‘코드 1’로 상향 대응할 계획이며 지난 9월22일부터 백일동안 외국인범죄 특별단속기간을 운영해 도민 안전에 대한 가시적 효과를 거둘 수 있도록 순찰을 강화한다.제주출입국관리사무소는 무사증 불법체류 방지를 위한 입국심사를 강화하고 증가하는 불법체류자 관리 강화방안을 마련해 무단이탈자의 이탈 경로, 불법취업 알선 브로커 등 조사 내용을 관계기관과 적극적으로 공유할 계획이다.앞으로 제주도는 각 안전관리 대책별로 정책 협업과 안전 공조를 강화해 나가는 한편 중앙정부 건의과제인 제주지방청 외사과 신설과 이민특수 조사대 신설 등에도 공동 대응해 나갈 방침이다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 이광재 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1파블로항공 "드론 원천 기술로 무인 모빌리티 시장 선도하겠다" 2[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 3레노버, ‘씽크시스템 서버 혁신 30주년’ 기념 제품 업그레이드 발표 4[기고] 빠르게 진화하는 사이버 보안 위협 요인의 진단 및 정보 보안 핫 이슈 5윈도우-리눅스 노리는 멀웨어 ‘카오스’ 주의 6안랩, 컴퓨터 드라이버 취약점 이용한 사이버 공격 사례 발표 7LGU+ 등 개인정보 보호법 어긴 8개 사업자에 3120만 원 벌금 부과 8스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 9인섹시큐리티, 디지털포렌식 ‘랜섬웨어-가상자산 분석 추적 세미나’ 연다 10SK쉴더스, 클라우드 보안 서비스 ‘Network Protection for AWS’ 출시 이 시각 주요뉴스 비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 한국전자통신연구원, ‘2022 자율성장 인공지능 경진대회’ 성료 한국전자통신연구원, ‘2022 자율성장 인공지능 경진대회’ 성료 안전보건공단, 선진 4국과 함께 산업 안전 보건 제도 세미나 개최 안전보건공단, 선진 4국과 함께 산업 안전 보건 제도 세미나 개최 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>관광자원 풍부한 제주도 서부지역… 오피스텔 `킹덤레지던스 협재` 활발한 분양 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 관광자원 풍부한 제주도 서부지역… 오피스텔 `킹덤레지던스 협재` 활발한 분양 인터넷마케팅팀 입력: 2016-10-05 10:22 제주도는 지금껏 서부 지역을 중심으로 풍부한 관광자원 개발이 이뤄졌다. 특히 지난 2007년을 기준으로 총 30여 개 사업에 약 7조원 가량이 투자됐으며, 이는 신화역사공원을 비롯해 각종 리조트와 골프장, 유원지 등이 대표적이다. 지역 관계자는 "해마다 제주도의 관광자원은 늘어나고 있으며, 관광객의 증가 또한 급속도로 이뤄지고 있다"며, "때문에 다양한 수요자들을 충족시킬 수 있는 생활주택이나 오피스텔 등의 공급이 절실한 실정이다"고 전했다. 이에 제주시 한림읍 옹포리 일대에 들어서는 제주도 오피스텔 '킹덤레지던스협재'가 본격적인 분양에 나서 수요자들 사이에서 관심을 받고 있다는 소식이다. 지하 1층~지상 8층 총 16개 타입, 135실로 구성된 해당 오피스텔은 내진설계를 강화해 6.0의 진동에도 버틸 수 있도록 설계돼 지진 안전에 민감함 수요자들의 높은 만족도를 보일 것으로 기대를 모은다. 해당 제주도 오피스텔 내부에는 최첨단 빌트인 풀옵션 시스템이 마련되며, 호텔 수준의 식사를 제공하는 식당은 물론 자연을 만끽할 수 있는 글램핑장과 스카이바의 조성으로 제주도에서의 쾌적한 생활이 가능할 것으로 전망된다. 분양 관계자는 "최근 이슈가 되고 있는 내진 설계는 물론 다양한 편의시설과 인프라 구축을 통해 임대수익이나 시세차익을 올리려는 투자자들은 물론 실입주를 원하는 수요자들을 모두 만족 시킬 수 있을 것으로 보인다"고 전했다. 차량으로 30여 분 거리에 제주국제여객터미널과 제주국제공항이 위치해있는 '킹덤레지던스 협재'는 '휘문건설주식회사'가 시공을, '제주킹덤씨티주식회사'가 시행을 맡았으며, 계약자들을 위해 현재 중도금 전액 무이자 혜택을 제공 중이다. 한편, 홍보관은 제주특별자치도 제주시 노형동 일대에 위치해 있다. cskim@dt.co.kr [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1신혜성, 도난차량으로 음주운전 인정...“죄송하다” 2미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 3“외국계 증권사, 네이버 매도의견 낸 후 대량 공매도...피해는 개미투자자에게” 4노벨경제학상에 ‘금융위기 연구’ 버냉키 등 美경제학자 3인 5밀대로 학생 엉덩이 때린 20대 교사 징역형 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+  </si>
+  <si>
+    <t>동남아 관광객 대상 제주도관광 활성화 방안 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 동남아 관광객 대상 제주도관광 활성화 방안 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 오피니언 제주칼럼 동남아 관광객 대상 제주도관광 활성화 방안 뉴제주일보 승인 2016.10.05 19:09 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 곽재우. 제주한라대학교 외식산업경영학과 교수 [제주일보] 요즘 같은 불황기에 중국인들의 한국 방문은 관광수익을 올리는데 반가운 일이다. 그러나 수익이라는 경제적 가치만으로 이들의 방문을 마냥 두 팔 벌려 환영할 수 있는 것만은 아니다. 이들로 인해 발생하는 부작용은 사회적으로 큰 우려를 낳고 있는 상황이며, 특히 중국인들이 많이 몰리고 있는 제주도는 이들로 인한 범죄가 급증하고 있다.2015년 제주도 외국인 관광객(262만 명)중 중국 관광객은 223만 명으로 85.3% 차지하였고, 일본 등 타 국가 관광객은 감소하거나 정체 상태로 중국 관광객 편중이 상당히 심각하다. 이를 해결하기 위한 방안으로 동남아시아, 특히 베트남 관광객을 유치하는 방안을 고려해 볼 수 있다.베트남인의 해외관광은 매년 10~12%의 성장세를 보이고 있다. 이들 해외 여행의 주 국가는 캄보디아, 태국, 라오스이고 그 외 일정기간 비자가 면제되는 싱가포르, 말레이시아 등 주로 동남아시아 국가이다. 현재 제주도를 방문하는 베트남인대부분은 순수 관광목적으로 방문하고 있다. 이들의 정기적인 방문, 재방문 등을 위해서는 민간 또는 정부공사단위 차원의 지속적인 경제교류관계를 구축하는 것이 필요하다.제주도와 베트남의 상호 경제교류를 위한 추천 아이템으로, 제주도에서 베트남으로의 소매 무역으로 물, 우유, 과일주스 등의 식음료, 교육으로는 인턴십, 한국어학연수 등이 있다. 또 인력교류를 통해 선진관광시스템을 전파하는 하는 것도 해당될 수 있다. 베트남에서 제주도로의 소매 무역으로는 커피(원두), 목재 등의 원재료, 리조트 개발 및 투자 등이 있다. 또 인력교류를 통한 서비스인력양성 기술교육 등도 해당될 수 있다. 그리고 베트남인 해외여행 인구의 29%가 공무 또는 업무상 목적인 것을 고려할 때 제주도가 단순 소비성 지출중심의 지역이 아닌 상호 경제적 이익이 발생하는 다중목적 여행대상 지역으로의 전환이 필요하다.이와 함께 베트남인들을 대상으로 한 제주도 관광 홍보 방식의 다양화도 필요하다. 지금까지 베트남 내 제주도 관광 홍보는 오프라인상의 단발성 이벤트 (관광 박람회, 문화행사, TV 프로그램 등) 및 특정지역 리조트, 여행사 등 관광유관 단체의 자발적 협조를 구하는 소극적·지엽적 홍보가 대다수였다.현재 베트남의 2대 여행사인 Viet Travel, Saigon Tourist의 경우 온라인상에서는 제주여행에 대한 상품 또는 홍보를 하지 않고 있는 만큼 실질적으로 제주도 관광에 대해 베트남 내 대중적인 홍보는 단절된 상태이다. 이에 제주도에 대한 인지제고를 위해서는 구글, 페이스북, 유튜브, Zing(베트남 포털)등의 대중적 홍보매체를 활용하고 경제교류와 연관된 행정기관, 공사, 정부부처 등의 유관단체의 지속적 협조가 필요하다.이와 더불어 제주도내 관광 인프라 확보도 필요하다.베트남인의 제주도 관광은 순수관광, 문화체험, 쇼핑, 카지노 등으로 제주도가 자체적으로 구축한 관광 인프라에 맞춰 여행 일정이 진행되며, 여행 중 정보 습득 출처의 대부분은 가이드, 관광지 설명 책자, 숙박시설의 직원 등을 통해서다. 그러나 베트남 여행객들은 외국어능력(영어)이 높지 않으므로 베트남어가 가능한 베트남인 가이드, 숙식, 쇼핑, 카지노 내 베트남 서비스 인력 등을 배치하는 것이 필요하다.이외에도 특정 국가, 국적 대상 관광 인프라를 개발하고 구축하는 것은 효율성의 관점에서 판단하는 것이 당연하므로 첫 번째로 언급한 민간경제교류가 정상화될 경우 자연스럽게 베트남인 대상의 관광인프라 구축이 이어질 것으로 판단된다. 그리고 현재 빈번히 발생하고 있는 불법체류자 또는 불법이탈자 관리는 민간경제교류가 이어지고, 제주도내 베트남인 취업제도의 합법화가 진행된다면 베트남 경찰, 정보기관 및 제주도 내 양성화된 베트남 경제주체(기업, 단체, 개인)의 자발적인 참여로 불법이탈자 근절이 가능하다고 본다.이상에서 살펴본 여러 가지 방안들을 고려하고 활성화해 나간다면, 머지않아 도내에 베트남 관광객을 포함하여 동남아 관광객들도 상당수 증가할 것이다. 뉴제주일보  cjnews@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 뉴제주일보 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>‘한라산 등반’ 잊지 못할 수학여행의 추억 성광여고 1학년, 지난 4~7일 ‘제주도 현장체험학습’…지형&amp;체험을 주제로 관광지 탐방 - 울산매일 2022.10.11 화 로그인 회원가입 페이스북 트위터 인스타그램 카카오스토리채널 기사제보독자투고 광고신청 구독신청 전체 뉴스Now 오피니언 사설 반구대 매일시론 경제칼럼 자치시대 문화산책 현장소리 사는이야기 기고 뉴스에세이 아침을 여는 시 데스크 칼럼 기자의 눈 울산의 창 남은우의 시산책 흑백사진 속으로 하주의 공연읽기 박용하의 문화읽기 배창호의 영화읽기 기타 오나경의 21세기미술관 김병길주필 회상록 울매詩選 허명·이인호의 문화 줌인 예채영의 미술읽기 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 정치 종합 지방의회 국회/정당 행정/외교 북한/통일 대통령실 선거 기타 경제 기업 경제단체 금융/증권 유통 건설/부동산 해운/항만 농축수산업 중소기업 기타 사회 노동 환경/생태 교육 자치단체 검찰/법조 사건/사고 사회단체 기타 문화 공연 전시 축제/행사 향토문화사 문화재 문학/출판 영화 울산맛집 종교 울산 방송가 김일훈의 민속을 말하다 김창일의 울산 농어촌 사계 박영식 시인의 육필의 향기 드론으로 보는 울산의 문화재 민용기의 POP과 JAZZ 태화강재즈페스티벌 음악에세이 연재 문화정책 육필의 향기 렌즈속 이야기 기타 김태환 연재소설 수상 집콕문화생활즐기기 울산 여성독립운동 톺아보기 울산 지질지형유산 둘러보기 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속 풍경 렌즈 속 이야기 화보 남북정상회담 U TV 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 카드뉴스 415 중구 415 남구갑/을 415 북구 415 동구 415 울주군 덕질의 세계 사람과삶 사람과삶 외신 연예 방송 연예가 영화 음악 기타 스포츠 축구 야구 농구 골프 울산체육 기타 지방 부산 양산 기타 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 부동산 해오름 문화유산탐방 건강의료 울산야생화 탐사 기타 생활정보 날씨 행사 경제지표 오늘운세 로또 건강생활Q&amp;A 경매 생활법률 회화-중국어 회화-영어 고용/노동 Q&amp;A 증권 정보과학 기타 열린마당 본사알림 알림 부음 결혼 인사 모집 독자권익위원회 청소년기자 뉴스 뉴스NOW 정치 지방선거 경제 사회 문화 사람과삶 외신 연예 스포츠 지방 공공기관장 사퇴 종용 · 5급 이상 무한경쟁 ‘폭탄 발언’ ‘함께뛰는 울산 하나되는 대한민국’ 7일간의 열전 돌입 삼동면 관광농원 특혜 보따리? … 이번엔 글램핑 분양 논란 "발로뛰는 현장소통 의정활동 민생 공감 총력 다할 것" 오피니언 사설 매일시론 경제칼럼 자치시대 문화산책 사는이야기 현장소리 기고 뉴스에세이 반구대 울산의 창 데스크 칼럼 기자의 눈 아침을 여는 시 오나경의 21세기 미술관 김병길주필 회상록 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 [기고] 국민건강보험 안정적 정부지원 법 개정 필요 [문화산책] 코스모스 [반구대] ‘이예로’ [현장소리] 청년들의 미래 이대로 괜찮은가? 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속풍경 렌즈 속 이야기 화보 ‘전국(장애인)체전 개·폐회식 관람객 편의물품 후원 전달식‘ ‘전국(장애인)체전 개·폐회식 관람객 편의물품 후원 전달식‘ 전국체전 최종 리허설 배호 그림세상(2022.10.7) 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 해오름 문화유산탐방 건강의료 기타 국산모델 수출 등 기술력은 충분 … 상용화 머지않았다 소비에 ‘가치’ 부여 … 다이닝에도 ‘제로웨이스트’ 바람 대중교통 선진지 이끄는 트램, 관광자원 역할도 ‘톡톡’ "누구든 ‘유쾌한 고발자’될때 ‘탄소 발자국’도 줄어" 신문보기 PDF 보기 4-15 총선공약 "질문 배달 왔어요" 중구 남구갑/을 북구 동구 울주군 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 [MZ뉴스] '도로위 빌런' 모음 [MZ뉴스]내년부터 싹 다 바뀌는 군부대 [태권도 시범단 풀영상] 성화만큼 뜨거운 태권도 퍼포먼스에 박수갈채 [울산전국체전]박상영 선수, 신들린 찌르기로 펜싱 에뻬 개인전 4강 진출, 부상투혼에도 졌잘싸 인터랙티브+ 통합검색 기사검색 상세검색 상세검색 검색기간 전체 1년 한달 일주일 3일 오늘 ~ 섹션별 섹션을 선택해주세요. 뉴스Now 오피니언 정치 경제 사회 문화 포토 U TV 사람과삶 외신 연예 스포츠 지방 기획 생활정보 열린마당 핫이슈 라이프 21대 국회의원선거 지방선거 엔디테스트 검색영역 전체 제목 부제목 제목+부제목 제목 + 본문 본문 기자 콘텐츠 범위 전체 기사내 사진 포함 기사내 동영상 포함 검색어 검색 초기화 상단여백 다음 이전 Home 열린마당 청소년기자 ‘한라산 등반’ 잊지 못할 수학여행의 추억 성광여고 1학년, 지난 4~7일 ‘제주도 현장체험학습’…지형&amp;체험을 주제로 관광지 탐방 페이스북 트위터 카카오스토리 밴드 메일 프린트 HOME 열린마당 청소년기자 ‘한라산 등반’ 잊지 못할 수학여행의 추억 성광여고 1학년, 지난 4~7일 ‘제주도 현장체험학습’…지형&amp;체험을 주제로 관광지 탐방 21면 기사보기 신문보기 JPG / PDF 오효민 성광여고 승인 2016.10.16 22:30 댓글 0 구글+ 블로그 밴드 카카오스토리 트위터 페이스북 메일보내기 인쇄하기 뉴스NOW 美, 김정은 '대화 불필요'에 "외교적 접근 전념"러 우크라 전역 대규모 공습…주요 인프라 파괴北, 전투기·폭격기 등 12대 무력시위…F-15K 등으로 대응이준석 '당원권 정지 1년' 추가 징계… 총선 어려울 듯北, 이틀만에 또 탄도미사일…美항모 재출동에 무력시위강원도 예미산 1천ｍ 지하에 지하실험실 조성바이든, 尹대통령에 친서…'인플레법' 협의"4분기 수출도 먹구름…"환율 변동·경기 둔화 애로 급증"북, 일본 통과 중거리미사일 쐈다與 "전직 대통령이라고 성역 있을 순 없어"사원 서면조사 요구에 문 "대단히 무례한 짓"'박진 해임안' 與 불참 속 野 단독 본회의 처리이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵'尹대통령, 오늘 해리스 美부통령 접견…북핵 논의北, 도발수위 높이나…美, 주시 속 北 핵실험 경고'러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 '쌍방울 뇌물 협의' 이화영 구속'위례신도시 211억 특혜' 유동규·남욱·정영학 기소오늘부터 오미크론 대응 개량백신 접종 사전예약尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 열기/닫기 닫기 뉴스NOW 美, 김정은 '대화 불필요'에 "외교적 접근 전념" 5시간 전 러 우크라 전역 대규모 공습…주요 인프라 파괴 5시간 전 北, 전투기·폭격기 등 12대 무력시위…F-15K 등으로 대응 4일 전 이준석 '당원권 정지 1년' 추가 징계… 총선 어려울 듯 4일 전 北, 이틀만에 또 탄도미사일…美항모 재출동에 무력시위 5일 전 강원도 예미산 1천ｍ 지하에 지하실험실 조성 5일 전 바이든, 尹대통령에 친서…'인플레법' 협의" 5일 전 4분기 수출도 먹구름…"환율 변동·경기 둔화 애로 급증" 6일 전 북, 일본 통과 중거리미사일 쐈다 6일 전 與 "전직 대통령이라고 성역 있을 순 없어" 7일 전 사원 서면조사 요구에 문 "대단히 무례한 짓" 7일 전 '박진 해임안' 與 불참 속 野 단독 본회의 처리 11일 전 이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵' 11일 전 尹대통령, 오늘 해리스 美부통령 접견…북핵 논의 12일 전 北, 도발수위 높이나…美, 주시 속 北 핵실험 경고 12일 전 '러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 13일 전 '쌍방울 뇌물 협의' 이화영 구속 13일 전 '위례신도시 211억 특혜' 유동규·남욱·정영학 기소 14일 전 오늘부터 오미크론 대응 개량백신 접종 사전예약 14일 전 尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 15일 전 ▲ 오효민 성광여고 성광여고 1학년 학생들은 지난 4일부터 3박4일간 아주 특별한 수학여행을 다녀왔다. 고등학교수학여행은 누구에게나 잊지 못할 추억이자만 이번 성광여고 수학여행은 태풍 ‘차바’ 영향으로 아주 특별한 여행이 됐다. 수학여행일정이 막 시작했을 때 태풍이 제주도로 북상한다는 소식이 전해졌다. 이에 성광여고 학생들은 우산과 우비를 단단히 챙겨 태풍을 맞설 준비를 했다. 다행히 일기예보와 달리 태풍은 5일 새벽을 지나고 잠잠해졌고 아침에는 파란 가을하늘을 볼 수 있었다. 이후 성광여고 학생들은 4팀으로 나뉘어 관광지를 찾아다녔고 특히 2팀은 ‘지형&amp;체험’을 주제로 한라산 어리목 코스를 등반했다. 등반도중 중도포기선언과 작은 부상이 있었지만 선생님들의 격려로 무사히 등반에 성공했다. ▲ 성광여고 2팀은 지난 6일 한라산 어리목 등반 후 기념사진을 촬영했다. 성광여고 김명화 교장선생님은 “성광여고 학생들이 운이 참 좋고 끝까지 포기하지 않고 등반에 성공한 우리 학생들이 자랑스럽다”며 격려했다. 3일째 밤에는 ‘쫌 노는 성광언니들’이라는 재치있는 주제로 성광여고 학생들의 장기자랑이 이어졌다. 요즘 인기있는 파인애플아저씨의 ‘PPAP'춤을 시작으로 임창정, 울랄라세션 등 친구들과 함께 연습한 춤으로 무대에 올랐다. 이번 성광여고 수학여행은 태풍으로 시작해 조금 무모했지만 학생들의 열정 때문인지 아주 특별하고 잊지 못할 수학여행이 됐다. &lt;저작권자 © 울산매일, 무단 전재 및 재배포 금지&gt; 저작권 문의 오효민 성광여고 이메일 icon오늘의 인기기사 조선소 선박 검댕 피해...불기둥 솟구친 SK에너지vs현대미포조선 책임 공방[경제칼럼] ESG 경영과 해비타트운동연휴 체전 맞춰 다양한 축제 … 경기장 안팎으로 ‘들썩’공권력까지 출동시킨 남구 웨딩홀 임대-임차인 갈등문인극회 '쫄병전선', 소설가 오영수 선생'화산댁이'무대위에 조선소 선박 검댕 피해...불기둥 솟구친 SK에너지vs현대미포조선 책임 공방 댓글 (200자평) 0개 전체보기 200자까지 쓰실 수 있습니다. 등록 ※ 비속어와 인신공격성 글 등은 바로 삭제됩니다. 특히, 근거 없는 글로 타인의 명예를 훼손하면 민·형사상 처벌을 받을 수 있습니다. [댓글(200자평)운영규칙 보기] 첫번째 댓글을 남겨주세요. 여백 회원사 한국신문협회 한국기자협회 한국사진기자협회 한국ABC 제휴사 중앙일보 워싱턴포스트 블룸버그 중국 長春日報 노컷뉴스 회사소개 광고안내 불편신고 제휴안내 개인정보취급방침 이메일무단수집거부 청소년보호정책 청탁금지법 현황 울산광역시 남구 두왕로 337-1 리더스파크  |  대표전화 : 052-243-1001  |  팩스 : 052-271-8790  |  사업자번호 : 620-81-14006 등록번호 : 울산,아01104  |   등록날짜 : 2017년 7월 13일  |  발행·편집인 : 이연희   |  청소년보호책임자 : 강정원 Copyright © 2022 울산매일. All rights reserved. 온라인 컨텐츠 및 뉴스저작권 문의 webmaster@iusm.co.kr RSS 서비스 Back to Top</t>
+  </si>
+  <si>
+    <t>각종 제주 관광지 인접… 제주도 오피스텔 ‘킹덤레지던스 협재’ 공급 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-11 12:07 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 각종 제주 관광지 인접… 제주도 오피스텔 ‘킹덤레지던스 협재’ 공급 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 각종 제주 관광지 인접… 제주도 오피스텔 ‘킹덤레지던스 협재’ 공급 이경옥 기자 승인 2016.10.07 10:04 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 킹덤레지던스 협재 홍보관 내부.[국토일보 이경옥 기자] 제주시 한림읍 옹포리 일원에 들어서는 ‘킹덤레지던스협재’가 투자자와 실수요자들의 큰 관심을 얻고 있다.이 오피스텔은 지하 1층~지상 8층 및 135실로 구성된다. 또한 16가지의 다양한 평면 타입으로 수요자들의 취향에 맞는 폭 넓은 선택권을 가지는 것이 특징이다.‘킹덤레지던스 협재’ 내부는 피트니스센터와 골프연습장, 편의점, 커피숍, 옥상 글램핑장, 라운지바 등이 조성되며, 무인경비시스템과 빌트인 풀옵션 가전으로 입주자들의 편의를 도모했다.뿐만 아니라 이곳 주변에는 협재해수욕장과 비양도, 곽지과물해변, 새별오름, 한림공원 등 제주도의 유명 관광지가 인접해 있어 국내외 관광객의 유입률이 높은 상태로 많은 수요를 보일 것으로 기대를 모은다.이 외에도 제주국제공항이 차량으로 30분 거리에 위치해있으며, 신화역사공원과 영어교육도시 각 20분 등 쾌적하고 편리한 생활을 누릴 수 있을 것으로 전망된다.분양 관계자는 “최근 이슈로 떠오른 지진에 걱정 없도록 해당 제주도 오피스텔은 리히터 규모 6.0에도 견딜 수 있는 내진설계가 적용돼있어 안심하고 편안하게 지낼 수 있을 것이다”고 전했다.한편, ‘킹덤레지던스협재’는 현재 중도금 전액 무이자 혜택을 제공하며, 최초 2년 동안의 임대료를 선 지급하고 3년부터는 1년 간의 임대료를 3년 간 선 지급하는 방식으로 이뤄진다. 또한 연 7.5%씩 5년간 37.5%를 보장한다.킹덤레지던스협재는 휘문건설이 시공하고, 제주킹덤씨티주식회사가 시행을 맡았다. 자금관리사는 생보부동산신탁이다.홍보관은 제주특별자치도 제주시 노형동에 위치해 있으며, 현재 방문하는 이들을 위한 상담을 진행 중이다.이경옥 기자 kolee@ikld.kr 저작권자 © 국토일보 무단전재 및 재배포 금지 이경옥 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1SM경남기업, '군산 경남아너스빌 디오션' 11일(화)부터 조건변경 청약 실시 2구미시, 전국 1호 '공항경제권 특례도시' 지정 기대감에 부동산시장 고조 3주택시장 이끄는 GS건설 '자이(Xi)', 대구 남구 대명동에 '대명자이 그랜드시티' 선보여 4대한토목학회, 아시아토목공학협의회 의장국 맡아 5똘똘한 한 채 선호현상 가속화… '힐스테이트 양주옥정 파티오포레' 비규제 프리미엄 각광 6부동산 규제 속 틈새 투자처 ‘수익형 부동산’ 주목 7전문건설공제조합, 이사장 선임... 논란 뜨겁다 8현대로템, 인천 자기부상열차 유지보수 수주 9김포 주상복합 신축현장서 외벽 비계 무너져 10포장재 공제조합, ESG경영·친환경포장 사용확대 추진 최신기사 12일 전남 장흥·13일 경상도 거창~김천 구간 개통 12일 전남 장흥·13일 경상도 거창~김천 구간 개통 [국정감사] 한전 적자 위기, "文정권의 탈원전·전기료 인상 뭉개기가 원인" [국정감사] 한전 적자 위기, "文정권의 탈원전·전기료 인상 뭉개기가 원인" 국토부, 동물 로드킬 저감대책 수립 국토부, 동물 로드킬 저감대책 수립 [환경국감] 지방유역환경청 환경영향평가 사후관리 부실 [환경국감] 지방유역환경청 환경영향평가 사후관리 부실 옥천, 산업단지 조성사업 활발… 미래가치 기대감 고조 옥천, 산업단지 조성사업 활발… 미래가치 기대감 고조 [국정감사] 채용형 인턴에게 일만 시키고 경력 인정 안 하는 한전 [국정감사] 채용형 인턴에게 일만 시키고 경력 인정 안 하는 한전 로앤에이법률사무소, 지역주택조합 사업 정상화 종합 솔루션 제공 로앤에이법률사무소, 지역주택조합 사업 정상화 종합 솔루션 제공 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,9 +551,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -470,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -513,9 +603,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -525,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -557,8 +644,225 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
